--- a/bills.xlsx
+++ b/bills.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="18517" windowHeight="9180"/>
+    <workbookView windowWidth="13717" windowHeight="8160"/>
   </bookViews>
   <sheets>
     <sheet name="2022年3月" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="133">
   <si>
     <t>编号</t>
   </si>
@@ -113,6 +113,63 @@
     <t>黑色渔夫帽</t>
   </si>
   <si>
+    <t xml:space="preserve">零食 </t>
+  </si>
+  <si>
+    <t>水果</t>
+  </si>
+  <si>
+    <t>上衣</t>
+  </si>
+  <si>
+    <t>条纹衬衫</t>
+  </si>
+  <si>
+    <t>快递</t>
+  </si>
+  <si>
+    <t>退货</t>
+  </si>
+  <si>
+    <t>外套</t>
+  </si>
+  <si>
+    <t>洗衣服</t>
+  </si>
+  <si>
+    <t>饮料</t>
+  </si>
+  <si>
+    <t>奶茶</t>
+  </si>
+  <si>
+    <t>充卡</t>
+  </si>
+  <si>
+    <t>运费险</t>
+  </si>
+  <si>
+    <t>白色打底衫</t>
+  </si>
+  <si>
+    <t>饰品</t>
+  </si>
+  <si>
+    <t>项链</t>
+  </si>
+  <si>
+    <t>鞋子</t>
+  </si>
+  <si>
+    <t>Nike Air Force</t>
+  </si>
+  <si>
+    <t>NIke Air Force</t>
+  </si>
+  <si>
+    <t>颢颢</t>
+  </si>
+  <si>
     <t>购物</t>
   </si>
   <si>
@@ -128,9 +185,6 @@
     <t>淘宝刷单</t>
   </si>
   <si>
-    <t>奶茶</t>
-  </si>
-  <si>
     <t>蜜雪冰城</t>
   </si>
   <si>
@@ -146,12 +200,6 @@
     <t>挂号</t>
   </si>
   <si>
-    <t>饮料</t>
-  </si>
-  <si>
-    <t>水果</t>
-  </si>
-  <si>
     <t>外卖</t>
   </si>
   <si>
@@ -173,15 +221,9 @@
     <t>宿舍用品</t>
   </si>
   <si>
-    <t>颢颢</t>
-  </si>
-  <si>
     <t>运费</t>
   </si>
   <si>
-    <t>退货</t>
-  </si>
-  <si>
     <t>淘宝买饮料</t>
   </si>
   <si>
@@ -239,9 +281,6 @@
     <t>小黄车月卡</t>
   </si>
   <si>
-    <t>快递</t>
-  </si>
-  <si>
     <t>电脑主机</t>
   </si>
   <si>
@@ -273,9 +312,6 @@
   </si>
   <si>
     <t>长板</t>
-  </si>
-  <si>
-    <t>鞋子</t>
   </si>
   <si>
     <t>回力白色滑板鞋</t>
@@ -391,12 +427,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,51 +461,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -482,16 +475,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -505,25 +491,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -537,6 +522,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -560,16 +560,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,8 +582,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -616,7 +632,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,31 +704,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,55 +716,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,19 +752,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,43 +782,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,8 +798,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1022,49 +1038,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB52D4F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF7E1D7"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFF7E1D7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB52D4F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF7E1D7"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF7E1D7"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF7E1D7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB52D4F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF7E1D7"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF7E1D7"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB52D4F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1079,34 +1052,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1131,22 +1086,40 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1164,152 +1137,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1359,49 +1332,28 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1773,24 +1725,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.90265486725664" customWidth="1"/>
-    <col min="2" max="2" width="10.7964601769912" customWidth="1"/>
-    <col min="3" max="5" width="6.90265486725664" customWidth="1"/>
-    <col min="6" max="6" width="11.858407079646" customWidth="1"/>
+    <col min="2" max="2" width="11.858407079646" customWidth="1"/>
+    <col min="3" max="3" width="6.90265486725664" customWidth="1"/>
+    <col min="4" max="4" width="8.30973451327434" customWidth="1"/>
+    <col min="5" max="5" width="7.60176991150442" customWidth="1"/>
+    <col min="6" max="6" width="15.0353982300885" customWidth="1"/>
     <col min="7" max="8" width="10.7964601769912" customWidth="1"/>
     <col min="9" max="9" width="15.3893805309735" customWidth="1"/>
     <col min="10" max="10" width="8.30973451327434" customWidth="1"/>
     <col min="11" max="11" width="10.7964601769912" customWidth="1"/>
     <col min="12" max="12" width="7.25663716814159" customWidth="1"/>
-    <col min="13" max="13" width="8.67256637168142" customWidth="1"/>
+    <col min="13" max="13" width="10.4424778761062" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:13">
@@ -1835,10 +1789,10 @@
       </c>
     </row>
     <row r="2" ht="18.5" customHeight="1" spans="1:13">
-      <c r="A2" s="19">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="4">
         <v>44621</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1859,7 +1813,7 @@
       <c r="H2" s="5">
         <v>1200</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="J2" s="5" t="s">
@@ -1867,21 +1821,21 @@
       </c>
       <c r="K2" s="5">
         <f>SUM(H2:H100)-SUM(E1:E100)</f>
-        <v>1016.7</v>
+        <v>-1845.29</v>
       </c>
       <c r="L2" s="5">
         <v>1200</v>
       </c>
       <c r="M2" s="14">
         <f>SUM(L2)+K3</f>
-        <v>1016.7</v>
+        <v>-1845.29</v>
       </c>
     </row>
     <row r="3" ht="18.5" customHeight="1" spans="1:13">
-      <c r="A3" s="21">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="7">
         <v>44621</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -1898,22 +1852,22 @@
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="24"/>
+      <c r="I3" s="8"/>
       <c r="J3" s="8" t="s">
         <v>20</v>
       </c>
       <c r="K3" s="8">
         <f>-SUM(E2:E100)</f>
-        <v>-183.3</v>
+        <v>-3045.29</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="15"/>
     </row>
     <row r="4" ht="18.5" customHeight="1" spans="1:13">
-      <c r="A4" s="21">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="7">
         <v>44621</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -1930,7 +1884,7 @@
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="24"/>
+      <c r="I4" s="8"/>
       <c r="J4" s="8" t="s">
         <v>22</v>
       </c>
@@ -1942,10 +1896,10 @@
       <c r="M4" s="15"/>
     </row>
     <row r="5" ht="18.5" customHeight="1" spans="1:13">
-      <c r="A5" s="21">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="7">
         <v>44621</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -1964,13 +1918,13 @@
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
-      <c r="M5" s="30"/>
+      <c r="M5" s="15"/>
     </row>
     <row r="6" ht="18.5" customHeight="1" spans="1:13">
-      <c r="A6" s="21">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="7">
         <v>44621</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -1991,13 +1945,13 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
-      <c r="M6" s="30"/>
+      <c r="M6" s="15"/>
     </row>
     <row r="7" ht="18.5" customHeight="1" spans="1:13">
-      <c r="A7" s="21">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="7">
         <v>44622</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -2018,61 +1972,1329 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="30"/>
+      <c r="M7" s="15"/>
     </row>
     <row r="8" ht="18.5" customHeight="1" spans="1:13">
-      <c r="A8" s="21">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="7">
         <v>44622</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="23" t="s">
+      <c r="C8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="8">
         <v>12.8</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="30"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="15"/>
     </row>
     <row r="9" ht="18.5" customHeight="1" spans="1:13">
-      <c r="A9" s="25">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="7">
         <v>44622</v>
       </c>
-      <c r="C9" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="27" t="s">
+      <c r="C9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="8">
         <v>7</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="31"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="15"/>
+    </row>
+    <row r="10" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7">
+        <v>44622</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="8">
+        <v>10</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="15"/>
+    </row>
+    <row r="11" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7">
+        <v>44622</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="8">
+        <v>12.8</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="15"/>
+    </row>
+    <row r="12" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7">
+        <v>44622</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="8">
+        <v>47.9</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="15"/>
+    </row>
+    <row r="13" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7">
+        <v>44622</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="8">
+        <v>10.41</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="15"/>
+    </row>
+    <row r="14" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7">
+        <v>44622</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="15"/>
+    </row>
+    <row r="15" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7">
+        <v>44623</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="8">
+        <v>18</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="15"/>
+    </row>
+    <row r="16" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7">
+        <v>44623</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="8">
+        <v>11.8</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="15"/>
+    </row>
+    <row r="17" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7">
+        <v>44623</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="8">
+        <v>7</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="15"/>
+    </row>
+    <row r="18" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7">
+        <v>44624</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="8">
+        <v>7</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="15"/>
+    </row>
+    <row r="19" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7">
+        <v>44624</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="8">
+        <v>10</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="15"/>
+    </row>
+    <row r="20" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7">
+        <v>44624</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="8">
+        <v>21.2</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="15"/>
+    </row>
+    <row r="21" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7">
+        <v>44624</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="8">
+        <v>61.2</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="15"/>
+    </row>
+    <row r="22" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7">
+        <v>44624</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="8">
+        <v>12</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="15"/>
+    </row>
+    <row r="23" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7">
+        <v>44624</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="8">
+        <v>178</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="15"/>
+    </row>
+    <row r="24" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7">
+        <v>44624</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="8">
+        <v>178</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="15"/>
+    </row>
+    <row r="25" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7">
+        <v>44625</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="8">
+        <v>7</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="15"/>
+    </row>
+    <row r="26" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7">
+        <v>44625</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="8">
+        <v>13.8</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="15"/>
+    </row>
+    <row r="27" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7">
+        <v>44625</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="8">
+        <v>3</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="15"/>
+    </row>
+    <row r="28" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7">
+        <v>44625</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="8">
+        <v>3</v>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="15"/>
+    </row>
+    <row r="29" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="7">
+        <v>44625</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="8">
+        <v>12</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="15"/>
+    </row>
+    <row r="30" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7">
+        <v>44626</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="8">
+        <v>22.9</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="15"/>
+    </row>
+    <row r="31" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="B31" s="7">
+        <v>44626</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="8">
+        <v>12</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="15"/>
+    </row>
+    <row r="32" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A32" s="6">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7">
+        <v>44626</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="15"/>
+    </row>
+    <row r="33" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A33" s="6">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7">
+        <v>44627</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="8">
+        <v>7</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="15"/>
+    </row>
+    <row r="34" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A34" s="6">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7">
+        <v>44627</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="8">
+        <v>12</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="15"/>
+    </row>
+    <row r="35" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A35" s="6">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7">
+        <v>44627</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="8">
+        <v>50</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="15"/>
+    </row>
+    <row r="36" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A36" s="6">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7">
+        <v>44627</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="8">
+        <v>7</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="15"/>
+    </row>
+    <row r="37" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A37" s="6">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7">
+        <v>44628</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="15"/>
+    </row>
+    <row r="38" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A38" s="6">
+        <v>37</v>
+      </c>
+      <c r="B38" s="17">
+        <v>44628</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="19">
+        <v>3</v>
+      </c>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="23"/>
+    </row>
+    <row r="39" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A39" s="6">
+        <v>38</v>
+      </c>
+      <c r="B39" s="17">
+        <v>44628</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="19">
+        <v>9.9</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="23"/>
+    </row>
+    <row r="40" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A40" s="6">
+        <v>39</v>
+      </c>
+      <c r="B40" s="17">
+        <v>44628</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="19">
+        <v>37.83</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="23"/>
+    </row>
+    <row r="41" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A41" s="6">
+        <v>40</v>
+      </c>
+      <c r="B41" s="17">
+        <v>44628</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="19">
+        <v>91.55</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="23"/>
+    </row>
+    <row r="42" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A42" s="6">
+        <v>41</v>
+      </c>
+      <c r="B42" s="17">
+        <v>44628</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="19">
+        <v>907</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="23"/>
+    </row>
+    <row r="43" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A43" s="6">
+        <v>42</v>
+      </c>
+      <c r="B43" s="17">
+        <v>44628</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="19">
+        <v>907</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="23"/>
+    </row>
+    <row r="44" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A44" s="6">
+        <v>43</v>
+      </c>
+      <c r="B44" s="17">
+        <v>44628</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="19">
+        <v>12</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
+      <c r="M44" s="23"/>
+    </row>
+    <row r="45" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A45" s="6">
+        <v>44</v>
+      </c>
+      <c r="B45" s="17">
+        <v>44629</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="19">
+        <v>5.5</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="23"/>
+    </row>
+    <row r="46" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A46" s="6">
+        <v>45</v>
+      </c>
+      <c r="B46" s="17">
+        <v>44629</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="19">
+        <v>5</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="23"/>
+    </row>
+    <row r="47" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A47" s="6">
+        <v>46</v>
+      </c>
+      <c r="B47" s="17">
+        <v>44629</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" s="19">
+        <v>6</v>
+      </c>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="23"/>
+    </row>
+    <row r="48" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A48" s="6">
+        <v>47</v>
+      </c>
+      <c r="B48" s="17">
+        <v>44629</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="19">
+        <v>7</v>
+      </c>
+      <c r="F48" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="23"/>
+    </row>
+    <row r="49" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A49" s="6">
+        <v>48</v>
+      </c>
+      <c r="B49" s="17">
+        <v>44629</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="19">
+        <v>8.5</v>
+      </c>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="23"/>
+    </row>
+    <row r="50" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A50" s="6">
+        <v>49</v>
+      </c>
+      <c r="B50" s="17">
+        <v>44629</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" s="19">
+        <v>13</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="23"/>
+    </row>
+    <row r="51" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A51" s="6">
+        <v>50</v>
+      </c>
+      <c r="B51" s="17">
+        <v>44629</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" s="19">
+        <v>8</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="23"/>
+    </row>
+    <row r="52" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A52" s="6">
+        <v>51</v>
+      </c>
+      <c r="B52" s="17">
+        <v>44629</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" s="19">
+        <v>36.5</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="23"/>
+    </row>
+    <row r="53" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A53" s="6">
+        <v>52</v>
+      </c>
+      <c r="B53" s="17">
+        <v>44629</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E53" s="19">
+        <v>4</v>
+      </c>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="23"/>
+    </row>
+    <row r="54" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A54" s="6">
+        <v>53</v>
+      </c>
+      <c r="B54" s="17">
+        <v>44630</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="19">
+        <v>7</v>
+      </c>
+      <c r="F54" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="23"/>
+    </row>
+    <row r="55" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A55" s="6">
+        <v>54</v>
+      </c>
+      <c r="B55" s="17">
+        <v>44630</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" s="19">
+        <v>13</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="23"/>
+    </row>
+    <row r="56" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A56" s="6">
+        <v>55</v>
+      </c>
+      <c r="B56" s="17">
+        <v>44630</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="19">
+        <v>20</v>
+      </c>
+      <c r="F56" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="23"/>
+    </row>
+    <row r="57" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A57" s="10">
+        <v>56</v>
+      </c>
+      <c r="B57" s="20">
+        <v>44630</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E57" s="22">
+        <v>3</v>
+      </c>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2127,7 +3349,7 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -2145,25 +3367,25 @@
         <v>44612</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E2" s="5">
         <v>55.1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H2" s="5">
         <v>7</v>
       </c>
-      <c r="I2" s="18" t="s">
-        <v>34</v>
+      <c r="I2" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>18</v>
@@ -2184,13 +3406,13 @@
         <v>13</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E3" s="8">
         <v>7</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -2220,7 +3442,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -2241,16 +3463,16 @@
         <v>44614</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="E5" s="8">
         <v>16.5</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -2269,7 +3491,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E6" s="8">
         <v>3</v>
@@ -2292,7 +3514,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E7" s="8">
         <v>5.75</v>
@@ -2315,7 +3537,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E8" s="8">
         <v>25.9</v>
@@ -2338,13 +3560,13 @@
         <v>13</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="E9" s="8">
         <v>147.5</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -2363,7 +3585,7 @@
         <v>13</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E10" s="8">
         <v>15.9</v>
@@ -2383,10 +3605,10 @@
         <v>44614</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E11" s="8">
         <v>3.2</v>
@@ -2409,7 +3631,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E12" s="8">
         <v>10</v>
@@ -2432,7 +3654,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E13" s="8">
         <v>3</v>
@@ -2455,7 +3677,7 @@
         <v>23</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E14" s="8">
         <v>8</v>
@@ -2501,13 +3723,13 @@
         <v>13</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E16" s="8">
         <v>14</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -2526,7 +3748,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E17" s="8">
         <v>2.5</v>
@@ -2555,7 +3777,7 @@
         <v>19.9</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -2574,7 +3796,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E19" s="8">
         <v>12</v>
@@ -2617,16 +3839,16 @@
         <v>44617</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E21" s="8">
         <v>12</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -2642,16 +3864,16 @@
         <v>44617</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E22" s="8">
         <v>12</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -2670,13 +3892,13 @@
         <v>13</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E23" s="8">
         <v>50.32</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -2741,13 +3963,13 @@
         <v>23</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E26" s="8">
         <v>13</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
@@ -2766,7 +3988,7 @@
         <v>13</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E27" s="8">
         <v>27</v>
@@ -2789,7 +4011,7 @@
         <v>13</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E28" s="8">
         <v>2.5</v>
@@ -2812,7 +4034,7 @@
         <v>13</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E29" s="8">
         <v>11.4</v>
@@ -2901,16 +4123,16 @@
         <v>44620</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E33" s="8">
         <v>88</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
@@ -2975,7 +4197,7 @@
         <v>13</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E36" s="8">
         <v>4</v>
@@ -2995,16 +4217,16 @@
         <v>44620</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="E37" s="12">
         <v>77.2</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
@@ -3087,20 +4309,20 @@
         <v>23</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="E2" s="5">
         <v>10</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="H2" s="5">
         <v>2000</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>18</v>
@@ -3118,16 +4340,16 @@
         <v>44613</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E3" s="8">
         <v>15</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -3151,7 +4373,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E4" s="8">
         <v>4.5</v>
@@ -3179,13 +4401,13 @@
         <v>13</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="E5" s="8">
         <v>47</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -3201,7 +4423,7 @@
         <v>44613</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>28</v>
@@ -3210,7 +4432,7 @@
         <v>39</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -3226,16 +4448,16 @@
         <v>44613</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="E7" s="8">
         <v>8.8</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -3254,13 +4476,13 @@
         <v>23</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="E8" s="8">
         <v>54.8</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -3279,13 +4501,13 @@
         <v>23</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="E9" s="8">
         <v>28</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -3304,13 +4526,13 @@
         <v>23</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="E10" s="8">
         <v>22</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -3326,16 +4548,16 @@
         <v>44610</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E11" s="8">
         <v>186</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -3351,10 +4573,10 @@
         <v>44613</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="E12" s="8">
         <v>7</v>
@@ -3377,13 +4599,13 @@
         <v>23</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E13" s="8">
         <v>106.4</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -3402,13 +4624,13 @@
         <v>23</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E14" s="12">
         <v>29.9</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
@@ -3488,19 +4710,19 @@
         <v>44578</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E2" s="5">
         <v>112.42</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="H2" s="5">
         <f>400+1400</f>
@@ -3523,19 +4745,19 @@
         <v>44585</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E3" s="8">
         <v>679</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H3" s="8">
         <v>6</v>
@@ -3557,16 +4779,16 @@
         <v>44585</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="E4" s="8">
         <v>104.9</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>26</v>
@@ -3575,7 +4797,7 @@
         <v>50</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>22</v>
@@ -3593,16 +4815,16 @@
         <v>44598</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="E5" s="8">
         <v>500</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>16</v>
@@ -3622,22 +4844,22 @@
         <v>44596</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="E6" s="8">
         <v>335.54</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="K6" s="15">
         <f>SUM(E2,E4,E5,E6,E7,E8,E9,E12,E14)</f>
@@ -3657,7 +4879,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="K7" s="15">
         <f>SUM(E3,E10,E11,E12)</f>
@@ -3677,7 +4899,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="K8" s="15">
         <f>SUM([1]Sheet1!E11,E20,E22,E28,E29,E26)</f>
@@ -3707,16 +4929,16 @@
         <v>44604</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E10" s="8">
         <v>63</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -3732,16 +4954,16 @@
         <v>44605</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E11" s="8">
         <v>56.72</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -3757,16 +4979,16 @@
         <v>44607</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E12" s="8">
         <v>76</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -3782,16 +5004,16 @@
         <v>44607</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="E13" s="8">
         <v>119.31</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -3807,16 +5029,16 @@
         <v>44605</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E14" s="8">
         <v>118</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -3858,17 +5080,17 @@
         <v>44610</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E16" s="8">
         <f>12+12+5+17+12+12-10-10-8-11</f>
         <v>31</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -3899,16 +5121,16 @@
         <v>44600</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="E18" s="8">
         <v>92</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -3924,16 +5146,16 @@
         <v>44602</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="E19" s="8">
         <v>29</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
@@ -3949,16 +5171,16 @@
         <v>44609</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="E20" s="8">
         <v>36</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
@@ -3974,16 +5196,16 @@
         <v>44587</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E21" s="8">
         <v>29.9</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -3999,16 +5221,16 @@
         <v>44595</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="E22" s="8">
         <v>118.5</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -4024,16 +5246,16 @@
         <v>44610</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="E23" s="8">
         <v>1.78</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -4052,14 +5274,14 @@
         <v>13</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E24" s="8">
         <f>3+4+4+3+10+6+6+3+9+7+2+8+5+3+5+18</f>
         <v>96</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
@@ -4078,13 +5300,13 @@
         <v>23</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="E25" s="8">
         <v>34</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
@@ -4107,7 +5329,7 @@
         <v>183</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
@@ -4123,16 +5345,16 @@
         <v>44592</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E27" s="8">
         <v>4</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -4155,7 +5377,7 @@
         <v>110</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -4178,7 +5400,7 @@
         <v>208</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
@@ -4194,16 +5416,16 @@
         <v>44582</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="E30" s="8">
         <v>40</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -4219,16 +5441,16 @@
         <v>44582</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="E31" s="8">
         <v>9.9</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
@@ -4251,7 +5473,7 @@
         <v>20</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
@@ -4270,7 +5492,7 @@
         <v>13</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E33" s="8">
         <v>27</v>
@@ -4293,7 +5515,7 @@
         <v>13</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E34" s="8">
         <v>35</v>
@@ -4345,7 +5567,7 @@
         <v>10</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
@@ -4364,13 +5586,13 @@
         <v>23</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="E37" s="8">
         <v>228</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
@@ -4389,7 +5611,7 @@
         <v>13</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E38" s="8">
         <v>3</v>

--- a/bills.xlsx
+++ b/bills.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="13717" windowHeight="8160"/>
+    <workbookView windowWidth="18517" windowHeight="8160"/>
   </bookViews>
   <sheets>
     <sheet name="2022年3月" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="131">
   <si>
     <t>编号</t>
   </si>
@@ -119,18 +119,15 @@
     <t>水果</t>
   </si>
   <si>
+    <t>快递</t>
+  </si>
+  <si>
+    <t>退货</t>
+  </si>
+  <si>
     <t>上衣</t>
   </si>
   <si>
-    <t>条纹衬衫</t>
-  </si>
-  <si>
-    <t>快递</t>
-  </si>
-  <si>
-    <t>退货</t>
-  </si>
-  <si>
     <t>外套</t>
   </si>
   <si>
@@ -152,12 +149,6 @@
     <t>白色打底衫</t>
   </si>
   <si>
-    <t>饰品</t>
-  </si>
-  <si>
-    <t>项链</t>
-  </si>
-  <si>
     <t>鞋子</t>
   </si>
   <si>
@@ -168,6 +159,9 @@
   </si>
   <si>
     <t>颢颢</t>
+  </si>
+  <si>
+    <t xml:space="preserve">餐饮 </t>
   </si>
   <si>
     <t>购物</t>
@@ -427,10 +421,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -475,9 +469,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,33 +499,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -552,14 +547,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -582,6 +569,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -591,15 +593,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,7 +626,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,7 +686,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,13 +716,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,55 +752,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,13 +764,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,7 +788,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,55 +800,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,6 +1031,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1048,21 +1053,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1094,8 +1084,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1114,171 +1128,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1341,6 +1335,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1348,9 +1345,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1725,17 +1719,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M57"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.90265486725664" customWidth="1"/>
     <col min="2" max="2" width="11.858407079646" customWidth="1"/>
-    <col min="3" max="3" width="6.90265486725664" customWidth="1"/>
+    <col min="3" max="3" width="7.07079646017699" customWidth="1"/>
     <col min="4" max="4" width="8.30973451327434" customWidth="1"/>
     <col min="5" max="5" width="7.60176991150442" customWidth="1"/>
     <col min="6" max="6" width="15.0353982300885" customWidth="1"/>
@@ -1821,14 +1815,14 @@
       </c>
       <c r="K2" s="5">
         <f>SUM(H2:H100)-SUM(E1:E100)</f>
-        <v>-1845.29</v>
+        <v>-1776.24</v>
       </c>
       <c r="L2" s="5">
         <v>1200</v>
       </c>
       <c r="M2" s="14">
         <f>SUM(L2)+K3</f>
-        <v>-1845.29</v>
+        <v>-1776.24</v>
       </c>
     </row>
     <row r="3" ht="18.5" customHeight="1" spans="1:13">
@@ -1858,7 +1852,7 @@
       </c>
       <c r="K3" s="8">
         <f>-SUM(E2:E100)</f>
-        <v>-3045.29</v>
+        <v>-2976.24</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="15"/>
@@ -2323,21 +2317,11 @@
       <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="7">
-        <v>44624</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="8">
-        <v>61.2</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -2357,13 +2341,13 @@
         <v>25</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E22" s="8">
         <v>12</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -2384,13 +2368,13 @@
         <v>25</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E23" s="8">
         <v>178</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -2411,13 +2395,13 @@
         <v>25</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E24" s="8">
         <v>178</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
@@ -2492,7 +2476,7 @@
         <v>23</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E27" s="8">
         <v>3</v>
@@ -2517,7 +2501,7 @@
         <v>13</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E28" s="8">
         <v>3</v>
@@ -2542,7 +2526,7 @@
         <v>13</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E29" s="8">
         <v>12</v>
@@ -2700,7 +2684,7 @@
         <v>23</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E35" s="8">
         <v>50</v>
@@ -2725,7 +2709,7 @@
         <v>13</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E36" s="8">
         <v>7</v>
@@ -2770,531 +2754,779 @@
       <c r="A38" s="6">
         <v>37</v>
       </c>
-      <c r="B38" s="17">
+      <c r="B38" s="7">
         <v>44628</v>
       </c>
-      <c r="C38" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" s="19">
+      <c r="C38" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="8">
         <v>3</v>
       </c>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="23"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="15"/>
     </row>
     <row r="39" ht="18.5" customHeight="1" spans="1:13">
       <c r="A39" s="6">
         <v>38</v>
       </c>
-      <c r="B39" s="17">
+      <c r="B39" s="7">
         <v>44628</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="19">
+      <c r="E39" s="8">
         <v>9.9</v>
       </c>
-      <c r="F39" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="23"/>
+      <c r="F39" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="15"/>
     </row>
     <row r="40" ht="18.5" customHeight="1" spans="1:13">
       <c r="A40" s="6">
         <v>39</v>
       </c>
-      <c r="B40" s="17">
+      <c r="B40" s="7">
         <v>44628</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E40" s="19">
+      <c r="D40" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="8">
         <v>37.83</v>
       </c>
-      <c r="F40" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="23"/>
+      <c r="F40" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="15"/>
     </row>
     <row r="41" ht="18.5" customHeight="1" spans="1:13">
       <c r="A41" s="6">
         <v>40</v>
       </c>
-      <c r="B41" s="17">
-        <v>44628</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E41" s="19">
-        <v>91.55</v>
-      </c>
-      <c r="F41" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="23"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="15"/>
     </row>
     <row r="42" ht="18.5" customHeight="1" spans="1:13">
       <c r="A42" s="6">
         <v>41</v>
       </c>
-      <c r="B42" s="17">
+      <c r="B42" s="7">
         <v>44628</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D42" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E42" s="19">
+      <c r="D42" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="8">
         <v>907</v>
       </c>
-      <c r="F42" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="23"/>
+      <c r="F42" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="15"/>
     </row>
     <row r="43" ht="18.5" customHeight="1" spans="1:13">
       <c r="A43" s="6">
         <v>42</v>
       </c>
-      <c r="B43" s="17">
+      <c r="B43" s="7">
         <v>44628</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D43" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E43" s="19">
+      <c r="D43" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" s="8">
         <v>907</v>
       </c>
-      <c r="F43" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="23"/>
+      <c r="F43" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="15"/>
     </row>
     <row r="44" ht="18.5" customHeight="1" spans="1:13">
       <c r="A44" s="6">
         <v>43</v>
       </c>
-      <c r="B44" s="17">
+      <c r="B44" s="7">
         <v>44628</v>
       </c>
-      <c r="C44" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="18" t="s">
+      <c r="C44" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="19">
+      <c r="E44" s="8">
         <v>12</v>
       </c>
-      <c r="F44" s="18" t="s">
+      <c r="F44" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="23"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="15"/>
     </row>
     <row r="45" ht="18.5" customHeight="1" spans="1:13">
       <c r="A45" s="6">
         <v>44</v>
       </c>
-      <c r="B45" s="17">
+      <c r="B45" s="7">
         <v>44629</v>
       </c>
-      <c r="C45" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="18" t="s">
+      <c r="C45" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E45" s="19">
+      <c r="E45" s="8">
         <v>5.5</v>
       </c>
-      <c r="F45" s="18" t="s">
+      <c r="F45" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="23"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="15"/>
     </row>
     <row r="46" ht="18.5" customHeight="1" spans="1:13">
       <c r="A46" s="6">
         <v>45</v>
       </c>
-      <c r="B46" s="17">
+      <c r="B46" s="7">
         <v>44629</v>
       </c>
-      <c r="C46" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="18" t="s">
+      <c r="C46" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E46" s="19">
+      <c r="E46" s="8">
         <v>5</v>
       </c>
-      <c r="F46" s="18" t="s">
+      <c r="F46" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="23"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="15"/>
     </row>
     <row r="47" ht="18.5" customHeight="1" spans="1:13">
       <c r="A47" s="6">
         <v>46</v>
       </c>
-      <c r="B47" s="17">
+      <c r="B47" s="7">
         <v>44629</v>
       </c>
-      <c r="C47" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E47" s="19">
+      <c r="C47" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" s="8">
         <v>6</v>
       </c>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="23"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="15"/>
     </row>
     <row r="48" ht="18.5" customHeight="1" spans="1:13">
       <c r="A48" s="6">
         <v>47</v>
       </c>
-      <c r="B48" s="17">
+      <c r="B48" s="7">
         <v>44629</v>
       </c>
-      <c r="C48" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="18" t="s">
+      <c r="C48" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E48" s="19">
+      <c r="E48" s="8">
         <v>7</v>
       </c>
-      <c r="F48" s="18" t="s">
+      <c r="F48" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="23"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="15"/>
     </row>
     <row r="49" ht="18.5" customHeight="1" spans="1:13">
       <c r="A49" s="6">
         <v>48</v>
       </c>
-      <c r="B49" s="17">
+      <c r="B49" s="7">
         <v>44629</v>
       </c>
-      <c r="C49" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="18" t="s">
+      <c r="C49" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E49" s="19">
+      <c r="E49" s="8">
         <v>8.5</v>
       </c>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="23"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="15"/>
     </row>
     <row r="50" ht="18.5" customHeight="1" spans="1:13">
       <c r="A50" s="6">
         <v>49</v>
       </c>
-      <c r="B50" s="17">
+      <c r="B50" s="7">
         <v>44629</v>
       </c>
-      <c r="C50" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E50" s="19">
-        <v>13</v>
-      </c>
-      <c r="F50" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="23"/>
+      <c r="C50" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E50" s="8">
+        <v>13</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="15"/>
     </row>
     <row r="51" ht="18.5" customHeight="1" spans="1:13">
       <c r="A51" s="6">
         <v>50</v>
       </c>
-      <c r="B51" s="17">
+      <c r="B51" s="7">
         <v>44629</v>
       </c>
-      <c r="C51" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E51" s="19">
+      <c r="C51" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="8">
         <v>8</v>
       </c>
-      <c r="F51" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="23"/>
+      <c r="F51" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="15"/>
     </row>
     <row r="52" ht="18.5" customHeight="1" spans="1:13">
       <c r="A52" s="6">
         <v>51</v>
       </c>
-      <c r="B52" s="17">
+      <c r="B52" s="7">
         <v>44629</v>
       </c>
-      <c r="C52" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="18" t="s">
+      <c r="C52" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E52" s="19">
+      <c r="E52" s="8">
         <v>36.5</v>
       </c>
-      <c r="F52" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19"/>
-      <c r="M52" s="23"/>
+      <c r="F52" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="15"/>
     </row>
     <row r="53" ht="18.5" customHeight="1" spans="1:13">
       <c r="A53" s="6">
         <v>52</v>
       </c>
-      <c r="B53" s="17">
+      <c r="B53" s="7">
         <v>44629</v>
       </c>
-      <c r="C53" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="18" t="s">
+      <c r="C53" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E53" s="19">
+      <c r="E53" s="8">
         <v>4</v>
       </c>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
-      <c r="M53" s="23"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="15"/>
     </row>
     <row r="54" ht="18.5" customHeight="1" spans="1:13">
       <c r="A54" s="6">
         <v>53</v>
       </c>
-      <c r="B54" s="17">
+      <c r="B54" s="7">
         <v>44630</v>
       </c>
-      <c r="C54" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="18" t="s">
+      <c r="C54" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E54" s="19">
+      <c r="E54" s="8">
         <v>7</v>
       </c>
-      <c r="F54" s="18" t="s">
+      <c r="F54" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="19"/>
-      <c r="M54" s="23"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="15"/>
     </row>
     <row r="55" ht="18.5" customHeight="1" spans="1:13">
       <c r="A55" s="6">
         <v>54</v>
       </c>
-      <c r="B55" s="17">
+      <c r="B55" s="7">
         <v>44630</v>
       </c>
-      <c r="C55" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" s="18" t="s">
+      <c r="C55" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E55" s="19">
-        <v>13</v>
-      </c>
-      <c r="F55" s="18" t="s">
+      <c r="E55" s="8">
+        <v>13</v>
+      </c>
+      <c r="F55" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="23"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="15"/>
     </row>
     <row r="56" ht="18.5" customHeight="1" spans="1:13">
       <c r="A56" s="6">
         <v>55</v>
       </c>
-      <c r="B56" s="17">
+      <c r="B56" s="7">
         <v>44630</v>
       </c>
-      <c r="C56" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="18" t="s">
+      <c r="C56" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="19">
+      <c r="E56" s="8">
         <v>20</v>
       </c>
-      <c r="F56" s="18" t="s">
+      <c r="F56" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
-      <c r="K56" s="19"/>
-      <c r="L56" s="19"/>
-      <c r="M56" s="23"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="15"/>
     </row>
     <row r="57" ht="18.5" customHeight="1" spans="1:13">
-      <c r="A57" s="10">
+      <c r="A57" s="6">
         <v>56</v>
       </c>
-      <c r="B57" s="20">
+      <c r="B57" s="7">
         <v>44630</v>
       </c>
-      <c r="C57" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="21" t="s">
+      <c r="C57" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E57" s="8">
+        <v>3</v>
+      </c>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="15"/>
+    </row>
+    <row r="58" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A58" s="6">
+        <v>57</v>
+      </c>
+      <c r="B58" s="17">
+        <v>44631</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E58" s="19">
+        <v>6</v>
+      </c>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="20"/>
+    </row>
+    <row r="59" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A59" s="6">
+        <v>58</v>
+      </c>
+      <c r="B59" s="17">
+        <v>44631</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E59" s="19">
+        <v>3</v>
+      </c>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="20"/>
+    </row>
+    <row r="60" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A60" s="6">
+        <v>59</v>
+      </c>
+      <c r="B60" s="17">
+        <v>44631</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" s="19">
+        <v>12</v>
+      </c>
+      <c r="F60" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="20"/>
+    </row>
+    <row r="61" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A61" s="6">
+        <v>60</v>
+      </c>
+      <c r="B61" s="17">
+        <v>44631</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E57" s="22">
+      <c r="E61" s="19">
+        <v>4</v>
+      </c>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="20"/>
+    </row>
+    <row r="62" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A62" s="6">
+        <v>61</v>
+      </c>
+      <c r="B62" s="17">
+        <v>44631</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" s="19">
+        <v>11.7</v>
+      </c>
+      <c r="F62" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="20"/>
+    </row>
+    <row r="63" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A63" s="6">
+        <v>62</v>
+      </c>
+      <c r="B63" s="17">
+        <v>44631</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E63" s="19">
+        <v>10</v>
+      </c>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="20"/>
+    </row>
+    <row r="64" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A64" s="6">
+        <v>63</v>
+      </c>
+      <c r="B64" s="17">
+        <v>44631</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E64" s="19">
+        <v>7</v>
+      </c>
+      <c r="F64" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="19"/>
+      <c r="M64" s="20"/>
+    </row>
+    <row r="65" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A65" s="6">
+        <v>64</v>
+      </c>
+      <c r="B65" s="17">
+        <v>44631</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65" s="19">
         <v>3</v>
       </c>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="22"/>
-      <c r="L57" s="22"/>
-      <c r="M57" s="24"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="19"/>
+      <c r="L65" s="19"/>
+      <c r="M65" s="20"/>
+    </row>
+    <row r="66" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A66" s="6">
+        <v>65</v>
+      </c>
+      <c r="B66" s="17">
+        <v>44632</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E66" s="19">
+        <v>15</v>
+      </c>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="19"/>
+      <c r="M66" s="20"/>
+    </row>
+    <row r="67" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A67" s="10">
+        <v>66</v>
+      </c>
+      <c r="B67" s="21">
+        <v>44632</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" s="23">
+        <v>12</v>
+      </c>
+      <c r="F67" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
+      <c r="I67" s="23"/>
+      <c r="J67" s="23"/>
+      <c r="K67" s="23"/>
+      <c r="L67" s="23"/>
+      <c r="M67" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3367,25 +3599,25 @@
         <v>44612</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E2" s="5">
         <v>55.1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H2" s="5">
         <v>7</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>18</v>
@@ -3406,13 +3638,13 @@
         <v>13</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="8">
         <v>7</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -3442,7 +3674,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -3463,16 +3695,16 @@
         <v>44614</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E5" s="8">
         <v>16.5</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -3491,7 +3723,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="8">
         <v>3</v>
@@ -3537,7 +3769,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E8" s="8">
         <v>25.9</v>
@@ -3560,13 +3792,13 @@
         <v>13</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E9" s="8">
         <v>147.5</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -3585,7 +3817,7 @@
         <v>13</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E10" s="8">
         <v>15.9</v>
@@ -3605,10 +3837,10 @@
         <v>44614</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E11" s="8">
         <v>3.2</v>
@@ -3631,7 +3863,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E12" s="8">
         <v>10</v>
@@ -3654,7 +3886,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" s="8">
         <v>3</v>
@@ -3677,7 +3909,7 @@
         <v>23</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E14" s="8">
         <v>8</v>
@@ -3723,13 +3955,13 @@
         <v>13</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E16" s="8">
         <v>14</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -3748,7 +3980,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E17" s="8">
         <v>2.5</v>
@@ -3777,7 +4009,7 @@
         <v>19.9</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -3796,7 +4028,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" s="8">
         <v>12</v>
@@ -3839,16 +4071,16 @@
         <v>44617</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E21" s="8">
         <v>12</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -3864,16 +4096,16 @@
         <v>44617</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E22" s="8">
         <v>12</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -3892,13 +4124,13 @@
         <v>13</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E23" s="8">
         <v>50.32</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -3963,13 +4195,13 @@
         <v>23</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E26" s="8">
         <v>13</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
@@ -3988,7 +4220,7 @@
         <v>13</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E27" s="8">
         <v>27</v>
@@ -4011,7 +4243,7 @@
         <v>13</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E28" s="8">
         <v>2.5</v>
@@ -4034,7 +4266,7 @@
         <v>13</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E29" s="8">
         <v>11.4</v>
@@ -4123,16 +4355,16 @@
         <v>44620</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E33" s="8">
         <v>88</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
@@ -4197,7 +4429,7 @@
         <v>13</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E36" s="8">
         <v>4</v>
@@ -4217,16 +4449,16 @@
         <v>44620</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E37" s="12">
         <v>77.2</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
@@ -4309,20 +4541,20 @@
         <v>23</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E2" s="5">
         <v>10</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H2" s="5">
         <v>2000</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>18</v>
@@ -4340,16 +4572,16 @@
         <v>44613</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E3" s="8">
         <v>15</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -4373,7 +4605,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="8">
         <v>4.5</v>
@@ -4401,13 +4633,13 @@
         <v>13</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E5" s="8">
         <v>47</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -4423,7 +4655,7 @@
         <v>44613</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>28</v>
@@ -4432,7 +4664,7 @@
         <v>39</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -4448,16 +4680,16 @@
         <v>44613</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E7" s="8">
         <v>8.8</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -4476,13 +4708,13 @@
         <v>23</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E8" s="8">
         <v>54.8</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -4501,13 +4733,13 @@
         <v>23</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E9" s="8">
         <v>28</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -4526,13 +4758,13 @@
         <v>23</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E10" s="8">
         <v>22</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -4548,16 +4780,16 @@
         <v>44610</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E11" s="8">
         <v>186</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -4573,10 +4805,10 @@
         <v>44613</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E12" s="8">
         <v>7</v>
@@ -4599,13 +4831,13 @@
         <v>23</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E13" s="8">
         <v>106.4</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -4624,13 +4856,13 @@
         <v>23</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E14" s="12">
         <v>29.9</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
@@ -4710,19 +4942,19 @@
         <v>44578</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E2" s="5">
         <v>112.42</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H2" s="5">
         <f>400+1400</f>
@@ -4745,19 +4977,19 @@
         <v>44585</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E3" s="8">
         <v>679</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H3" s="8">
         <v>6</v>
@@ -4779,16 +5011,16 @@
         <v>44585</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E4" s="8">
         <v>104.9</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>26</v>
@@ -4797,7 +5029,7 @@
         <v>50</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>22</v>
@@ -4815,16 +5047,16 @@
         <v>44598</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E5" s="8">
         <v>500</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>16</v>
@@ -4844,22 +5076,22 @@
         <v>44596</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E6" s="8">
         <v>335.54</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K6" s="15">
         <f>SUM(E2,E4,E5,E6,E7,E8,E9,E12,E14)</f>
@@ -4879,7 +5111,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K7" s="15">
         <f>SUM(E3,E10,E11,E12)</f>
@@ -4899,7 +5131,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K8" s="15">
         <f>SUM([1]Sheet1!E11,E20,E22,E28,E29,E26)</f>
@@ -4929,16 +5161,16 @@
         <v>44604</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E10" s="8">
         <v>63</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -4954,16 +5186,16 @@
         <v>44605</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E11" s="8">
         <v>56.72</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -4979,16 +5211,16 @@
         <v>44607</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E12" s="8">
         <v>76</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -5004,16 +5236,16 @@
         <v>44607</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E13" s="8">
         <v>119.31</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -5029,16 +5261,16 @@
         <v>44605</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E14" s="8">
         <v>118</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -5080,17 +5312,17 @@
         <v>44610</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E16" s="8">
         <f>12+12+5+17+12+12-10-10-8-11</f>
         <v>31</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -5121,16 +5353,16 @@
         <v>44600</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E18" s="8">
         <v>92</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -5146,16 +5378,16 @@
         <v>44602</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E19" s="8">
         <v>29</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
@@ -5171,16 +5403,16 @@
         <v>44609</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E20" s="8">
         <v>36</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
@@ -5196,16 +5428,16 @@
         <v>44587</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E21" s="8">
         <v>29.9</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -5221,16 +5453,16 @@
         <v>44595</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E22" s="8">
         <v>118.5</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -5246,16 +5478,16 @@
         <v>44610</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E23" s="8">
         <v>1.78</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -5274,14 +5506,14 @@
         <v>13</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E24" s="8">
         <f>3+4+4+3+10+6+6+3+9+7+2+8+5+3+5+18</f>
         <v>96</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
@@ -5300,13 +5532,13 @@
         <v>23</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E25" s="8">
         <v>34</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
@@ -5329,7 +5561,7 @@
         <v>183</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
@@ -5345,16 +5577,16 @@
         <v>44592</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E27" s="8">
         <v>4</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -5377,7 +5609,7 @@
         <v>110</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -5400,7 +5632,7 @@
         <v>208</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
@@ -5416,16 +5648,16 @@
         <v>44582</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E30" s="8">
         <v>40</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -5441,16 +5673,16 @@
         <v>44582</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E31" s="8">
         <v>9.9</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
@@ -5473,7 +5705,7 @@
         <v>20</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
@@ -5492,7 +5724,7 @@
         <v>13</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E33" s="8">
         <v>27</v>
@@ -5515,7 +5747,7 @@
         <v>13</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E34" s="8">
         <v>35</v>
@@ -5567,7 +5799,7 @@
         <v>10</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
@@ -5586,13 +5818,13 @@
         <v>23</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E37" s="8">
         <v>228</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
@@ -5611,7 +5843,7 @@
         <v>13</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E38" s="8">
         <v>3</v>

--- a/bills.xlsx
+++ b/bills.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="131">
   <si>
     <t>编号</t>
   </si>
@@ -164,6 +164,15 @@
     <t xml:space="preserve">餐饮 </t>
   </si>
   <si>
+    <t>交通</t>
+  </si>
+  <si>
+    <t>地铁</t>
+  </si>
+  <si>
+    <t>外卖</t>
+  </si>
+  <si>
     <t>购物</t>
   </si>
   <si>
@@ -194,9 +203,6 @@
     <t>挂号</t>
   </si>
   <si>
-    <t>外卖</t>
-  </si>
-  <si>
     <t>约会</t>
   </si>
   <si>
@@ -206,9 +212,6 @@
     <t>零食</t>
   </si>
   <si>
-    <t>交通</t>
-  </si>
-  <si>
     <t>公交</t>
   </si>
   <si>
@@ -288,9 +291,6 @@
   </si>
   <si>
     <t>高铁票</t>
-  </si>
-  <si>
-    <t>地铁</t>
   </si>
   <si>
     <t>物品收纳用具</t>
@@ -423,8 +423,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -455,8 +455,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,17 +477,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -487,13 +486,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -507,19 +499,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -547,6 +538,21 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -556,21 +562,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -592,8 +584,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -626,43 +626,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,7 +644,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,7 +656,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,61 +740,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,31 +794,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,17 +1031,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1092,6 +1081,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1134,10 +1134,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1146,31 +1146,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1182,97 +1185,94 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1326,25 +1326,25 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1719,10 +1719,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42:F43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1815,14 +1815,14 @@
       </c>
       <c r="K2" s="5">
         <f>SUM(H2:H100)-SUM(E1:E100)</f>
-        <v>-1776.24</v>
+        <v>-2542.64</v>
       </c>
       <c r="L2" s="5">
         <v>1200</v>
       </c>
       <c r="M2" s="14">
         <f>SUM(L2)+K3</f>
-        <v>-1776.24</v>
+        <v>-2542.64</v>
       </c>
     </row>
     <row r="3" ht="18.5" customHeight="1" spans="1:13">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="K3" s="8">
         <f>-SUM(E2:E100)</f>
-        <v>-2976.24</v>
+        <v>-3742.64</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="15"/>
@@ -3274,259 +3274,418 @@
       <c r="A58" s="6">
         <v>57</v>
       </c>
-      <c r="B58" s="17">
+      <c r="B58" s="7">
         <v>44631</v>
       </c>
-      <c r="C58" s="18" t="s">
+      <c r="C58" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D58" s="18" t="s">
+      <c r="D58" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E58" s="19">
+      <c r="E58" s="8">
         <v>6</v>
       </c>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="20"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="15"/>
     </row>
     <row r="59" ht="18.5" customHeight="1" spans="1:13">
       <c r="A59" s="6">
         <v>58</v>
       </c>
-      <c r="B59" s="17">
+      <c r="B59" s="7">
         <v>44631</v>
       </c>
-      <c r="C59" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D59" s="18" t="s">
+      <c r="C59" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E59" s="19">
+      <c r="E59" s="8">
         <v>3</v>
       </c>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="20"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="15"/>
     </row>
     <row r="60" ht="18.5" customHeight="1" spans="1:13">
       <c r="A60" s="6">
         <v>59</v>
       </c>
-      <c r="B60" s="17">
+      <c r="B60" s="7">
         <v>44631</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D60" s="18" t="s">
+      <c r="D60" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E60" s="19">
+      <c r="E60" s="8">
         <v>12</v>
       </c>
-      <c r="F60" s="18" t="s">
+      <c r="F60" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="19"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="19"/>
-      <c r="M60" s="20"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="15"/>
     </row>
     <row r="61" ht="18.5" customHeight="1" spans="1:13">
       <c r="A61" s="6">
         <v>60</v>
       </c>
-      <c r="B61" s="17">
+      <c r="B61" s="7">
         <v>44631</v>
       </c>
-      <c r="C61" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="18" t="s">
+      <c r="C61" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E61" s="19">
+      <c r="E61" s="8">
         <v>4</v>
       </c>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="19"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="20"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="15"/>
     </row>
     <row r="62" ht="18.5" customHeight="1" spans="1:13">
       <c r="A62" s="6">
         <v>61</v>
       </c>
-      <c r="B62" s="17">
+      <c r="B62" s="7">
         <v>44631</v>
       </c>
-      <c r="C62" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="18" t="s">
+      <c r="C62" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E62" s="19">
+      <c r="E62" s="8">
         <v>11.7</v>
       </c>
-      <c r="F62" s="18" t="s">
+      <c r="F62" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="19"/>
-      <c r="M62" s="20"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="15"/>
     </row>
     <row r="63" ht="18.5" customHeight="1" spans="1:13">
       <c r="A63" s="6">
         <v>62</v>
       </c>
-      <c r="B63" s="17">
+      <c r="B63" s="7">
         <v>44631</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C63" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D63" s="18" t="s">
+      <c r="D63" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E63" s="19">
+      <c r="E63" s="8">
         <v>10</v>
       </c>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="19"/>
-      <c r="K63" s="19"/>
-      <c r="L63" s="19"/>
-      <c r="M63" s="20"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="15"/>
     </row>
     <row r="64" ht="18.5" customHeight="1" spans="1:13">
       <c r="A64" s="6">
         <v>63</v>
       </c>
-      <c r="B64" s="17">
+      <c r="B64" s="7">
         <v>44631</v>
       </c>
-      <c r="C64" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="18" t="s">
+      <c r="C64" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E64" s="19">
+      <c r="E64" s="8">
         <v>7</v>
       </c>
-      <c r="F64" s="18" t="s">
+      <c r="F64" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="19"/>
-      <c r="K64" s="19"/>
-      <c r="L64" s="19"/>
-      <c r="M64" s="20"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="15"/>
     </row>
     <row r="65" ht="18.5" customHeight="1" spans="1:13">
       <c r="A65" s="6">
         <v>64</v>
       </c>
-      <c r="B65" s="17">
+      <c r="B65" s="7">
         <v>44631</v>
       </c>
-      <c r="C65" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="18" t="s">
+      <c r="C65" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E65" s="19">
+      <c r="E65" s="8">
         <v>3</v>
       </c>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="19"/>
-      <c r="K65" s="19"/>
-      <c r="L65" s="19"/>
-      <c r="M65" s="20"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="15"/>
     </row>
     <row r="66" ht="18.5" customHeight="1" spans="1:13">
       <c r="A66" s="6">
         <v>65</v>
       </c>
-      <c r="B66" s="17">
+      <c r="B66" s="7">
         <v>44632</v>
       </c>
-      <c r="C66" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D66" s="18" t="s">
+      <c r="C66" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E66" s="19">
+      <c r="E66" s="8">
         <v>15</v>
       </c>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="19"/>
-      <c r="K66" s="19"/>
-      <c r="L66" s="19"/>
-      <c r="M66" s="20"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="15"/>
     </row>
     <row r="67" ht="18.5" customHeight="1" spans="1:13">
-      <c r="A67" s="10">
+      <c r="A67" s="6">
         <v>66</v>
       </c>
-      <c r="B67" s="21">
+      <c r="B67" s="7">
         <v>44632</v>
       </c>
-      <c r="C67" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="22" t="s">
+      <c r="C67" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E67" s="23">
+      <c r="E67" s="8">
         <v>12</v>
       </c>
-      <c r="F67" s="22" t="s">
+      <c r="F67" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G67" s="23"/>
-      <c r="H67" s="23"/>
-      <c r="I67" s="23"/>
-      <c r="J67" s="23"/>
-      <c r="K67" s="23"/>
-      <c r="L67" s="23"/>
-      <c r="M67" s="24"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="15"/>
+    </row>
+    <row r="68" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A68" s="6">
+        <v>67</v>
+      </c>
+      <c r="B68" s="7">
+        <v>44632</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E68" s="18">
+        <v>5</v>
+      </c>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="18"/>
+      <c r="L68" s="18"/>
+      <c r="M68" s="23"/>
+    </row>
+    <row r="69" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A69" s="6">
+        <v>68</v>
+      </c>
+      <c r="B69" s="7">
+        <v>44632</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E69" s="18">
+        <v>6</v>
+      </c>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="18"/>
+      <c r="L69" s="18"/>
+      <c r="M69" s="23"/>
+    </row>
+    <row r="70" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A70" s="6">
+        <v>69</v>
+      </c>
+      <c r="B70" s="7">
+        <v>44632</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E70" s="18">
+        <v>6</v>
+      </c>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="18"/>
+      <c r="L70" s="18"/>
+      <c r="M70" s="23"/>
+    </row>
+    <row r="71" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A71" s="6">
+        <v>70</v>
+      </c>
+      <c r="B71" s="7">
+        <v>44632</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E71" s="18">
+        <v>702.5</v>
+      </c>
+      <c r="F71" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="18"/>
+      <c r="L71" s="18"/>
+      <c r="M71" s="23"/>
+    </row>
+    <row r="72" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A72" s="6">
+        <v>71</v>
+      </c>
+      <c r="B72" s="19">
+        <v>44633</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E72" s="18">
+        <v>46.9</v>
+      </c>
+      <c r="F72" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
+      <c r="J72" s="18"/>
+      <c r="K72" s="18"/>
+      <c r="L72" s="18"/>
+      <c r="M72" s="23"/>
+    </row>
+    <row r="73" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A73" s="6"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
+      <c r="J73" s="18"/>
+      <c r="K73" s="18"/>
+      <c r="L73" s="18"/>
+      <c r="M73" s="23"/>
+    </row>
+    <row r="74" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A74" s="10"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="22"/>
+      <c r="M74" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3599,25 +3758,25 @@
         <v>44612</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E2" s="5">
         <v>55.1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H2" s="5">
         <v>7</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>18</v>
@@ -3644,7 +3803,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -3674,7 +3833,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -3695,16 +3854,16 @@
         <v>44614</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E5" s="8">
         <v>16.5</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -3769,7 +3928,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E8" s="8">
         <v>25.9</v>
@@ -3792,13 +3951,13 @@
         <v>13</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E9" s="8">
         <v>147.5</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -3817,7 +3976,7 @@
         <v>13</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E10" s="8">
         <v>15.9</v>
@@ -3837,10 +3996,10 @@
         <v>44614</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E11" s="8">
         <v>3.2</v>
@@ -3863,7 +4022,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E12" s="8">
         <v>10</v>
@@ -3909,7 +4068,7 @@
         <v>23</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E14" s="8">
         <v>8</v>
@@ -4009,7 +4168,7 @@
         <v>19.9</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -4071,10 +4230,10 @@
         <v>44617</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E21" s="8">
         <v>12</v>
@@ -4096,10 +4255,10 @@
         <v>44617</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E22" s="8">
         <v>12</v>
@@ -4130,7 +4289,7 @@
         <v>50.32</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -4195,13 +4354,13 @@
         <v>23</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E26" s="8">
         <v>13</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
@@ -4220,7 +4379,7 @@
         <v>13</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E27" s="8">
         <v>27</v>
@@ -4266,7 +4425,7 @@
         <v>13</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E29" s="8">
         <v>11.4</v>
@@ -4355,16 +4514,16 @@
         <v>44620</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E33" s="8">
         <v>88</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
@@ -4449,16 +4608,16 @@
         <v>44620</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E37" s="12">
         <v>77.2</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
@@ -4541,20 +4700,20 @@
         <v>23</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E2" s="5">
         <v>10</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H2" s="5">
         <v>2000</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>18</v>
@@ -4572,16 +4731,16 @@
         <v>44613</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E3" s="8">
         <v>15</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -4633,13 +4792,13 @@
         <v>13</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E5" s="8">
         <v>47</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -4655,7 +4814,7 @@
         <v>44613</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>28</v>
@@ -4664,7 +4823,7 @@
         <v>39</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -4680,16 +4839,16 @@
         <v>44613</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E7" s="8">
         <v>8.8</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -4714,7 +4873,7 @@
         <v>54.8</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -4739,7 +4898,7 @@
         <v>28</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -4764,7 +4923,7 @@
         <v>22</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -4780,16 +4939,16 @@
         <v>44610</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E11" s="8">
         <v>186</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -4805,10 +4964,10 @@
         <v>44613</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="E12" s="8">
         <v>7</v>
@@ -4831,7 +4990,7 @@
         <v>23</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E13" s="8">
         <v>106.4</v>
@@ -4856,7 +5015,7 @@
         <v>23</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E14" s="12">
         <v>29.9</v>
@@ -4942,10 +5101,10 @@
         <v>44578</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E2" s="5">
         <v>112.42</v>
@@ -4977,10 +5136,10 @@
         <v>44585</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E3" s="8">
         <v>679</v>
@@ -4989,7 +5148,7 @@
         <v>94</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H3" s="8">
         <v>6</v>
@@ -5011,7 +5170,7 @@
         <v>44585</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>42</v>
@@ -5047,7 +5206,7 @@
         <v>44598</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>42</v>
@@ -5076,10 +5235,10 @@
         <v>44596</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E6" s="8">
         <v>335.54</v>
@@ -5091,7 +5250,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K6" s="15">
         <f>SUM(E2,E4,E5,E6,E7,E8,E9,E12,E14)</f>
@@ -5111,7 +5270,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K7" s="15">
         <f>SUM(E3,E10,E11,E12)</f>
@@ -5161,10 +5320,10 @@
         <v>44604</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E10" s="8">
         <v>63</v>
@@ -5186,10 +5345,10 @@
         <v>44605</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E11" s="8">
         <v>56.72</v>
@@ -5211,10 +5370,10 @@
         <v>44607</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E12" s="8">
         <v>76</v>
@@ -5236,7 +5395,7 @@
         <v>44607</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>103</v>
@@ -5261,10 +5420,10 @@
         <v>44605</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E14" s="8">
         <v>118</v>
@@ -5312,10 +5471,10 @@
         <v>44610</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E16" s="8">
         <f>12+12+5+17+12+12-10-10-8-11</f>
@@ -5378,7 +5537,7 @@
         <v>44602</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>110</v>
@@ -5403,7 +5562,7 @@
         <v>44609</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>112</v>
@@ -5428,10 +5587,10 @@
         <v>44587</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E21" s="8">
         <v>29.9</v>
@@ -5506,7 +5665,7 @@
         <v>13</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E24" s="8">
         <f>3+4+4+3+10+6+6+3+9+7+2+8+5+3+5+18</f>
@@ -5577,16 +5736,16 @@
         <v>44592</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E27" s="8">
         <v>4</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -5648,7 +5807,7 @@
         <v>44582</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>125</v>
@@ -5724,7 +5883,7 @@
         <v>13</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E33" s="8">
         <v>27</v>

--- a/bills.xlsx
+++ b/bills.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="134">
   <si>
     <t>编号</t>
   </si>
@@ -83,12 +83,21 @@
     <t>晚餐</t>
   </si>
   <si>
+    <t>刷单</t>
+  </si>
+  <si>
+    <t>淘宝刷单</t>
+  </si>
+  <si>
     <t>总支出</t>
   </si>
   <si>
     <t>午餐</t>
   </si>
   <si>
+    <t>基金分红</t>
+  </si>
+  <si>
     <t>总收入</t>
   </si>
   <si>
@@ -173,6 +182,21 @@
     <t>外卖</t>
   </si>
   <si>
+    <t>公交</t>
+  </si>
+  <si>
+    <t>医疗</t>
+  </si>
+  <si>
+    <t>挂号</t>
+  </si>
+  <si>
+    <t>鞋底贴</t>
+  </si>
+  <si>
+    <t>饰品</t>
+  </si>
+  <si>
     <t>购物</t>
   </si>
   <si>
@@ -182,27 +206,15 @@
     <t>虎虎生威</t>
   </si>
   <si>
-    <t>刷单</t>
-  </si>
-  <si>
-    <t>淘宝刷单</t>
-  </si>
-  <si>
     <t>蜜雪冰城</t>
   </si>
   <si>
     <t>鲍汁黄焖鸡</t>
   </si>
   <si>
-    <t>医疗</t>
-  </si>
-  <si>
     <t>牙齿</t>
   </si>
   <si>
-    <t>挂号</t>
-  </si>
-  <si>
     <t>约会</t>
   </si>
   <si>
@@ -210,9 +222,6 @@
   </si>
   <si>
     <t>零食</t>
-  </si>
-  <si>
-    <t>公交</t>
   </si>
   <si>
     <t>宿舍用品</t>
@@ -421,10 +430,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -457,21 +466,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -484,8 +486,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -499,13 +531,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -514,15 +539,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -545,6 +571,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -552,11 +579,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -568,32 +594,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -626,7 +635,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,7 +671,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,13 +713,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,97 +773,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,37 +803,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,6 +1040,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1073,6 +1112,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1089,55 +1137,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1146,133 +1155,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1335,10 +1344,10 @@
     <xf numFmtId="14" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1719,10 +1728,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M74"/>
+  <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1738,7 +1747,7 @@
     <col min="10" max="10" width="8.30973451327434" customWidth="1"/>
     <col min="11" max="11" width="10.7964601769912" customWidth="1"/>
     <col min="12" max="12" width="7.25663716814159" customWidth="1"/>
-    <col min="13" max="13" width="10.4424778761062" customWidth="1"/>
+    <col min="13" max="13" width="9.38053097345133" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:13">
@@ -1815,14 +1824,14 @@
       </c>
       <c r="K2" s="5">
         <f>SUM(H2:H100)-SUM(E1:E100)</f>
-        <v>-2542.64</v>
+        <v>-3026.92</v>
       </c>
       <c r="L2" s="5">
         <v>1200</v>
       </c>
       <c r="M2" s="14">
         <f>SUM(L2)+K3</f>
-        <v>-2542.64</v>
+        <v>-3047.2</v>
       </c>
     </row>
     <row r="3" ht="18.5" customHeight="1" spans="1:13">
@@ -1844,15 +1853,21 @@
       <c r="F3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="G3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="8">
+        <v>4</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="J3" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K3" s="8">
         <f>-SUM(E2:E100)</f>
-        <v>-3742.64</v>
+        <v>-4247.2</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="15"/>
@@ -1868,7 +1883,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" s="8">
         <v>13.8</v>
@@ -1876,15 +1891,19 @@
       <c r="F4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
+      <c r="G4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="8">
+        <v>16.28</v>
+      </c>
       <c r="I4" s="8"/>
       <c r="J4" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K4" s="8">
         <f>SUM(H1:H100)</f>
-        <v>1200</v>
+        <v>1220.28</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="15"/>
@@ -1897,10 +1916,10 @@
         <v>44621</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E5" s="8">
         <v>50</v>
@@ -1922,16 +1941,16 @@
         <v>44621</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E6" s="8">
         <v>19.2</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -1949,16 +1968,16 @@
         <v>44622</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E7" s="8">
         <v>68</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -1979,7 +1998,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8" s="8">
         <v>12.8</v>
@@ -2060,7 +2079,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11" s="8">
         <v>12.8</v>
@@ -2087,7 +2106,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E12" s="8">
         <v>47.9</v>
@@ -2112,7 +2131,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E13" s="8">
         <v>10.41</v>
@@ -2137,7 +2156,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E14" s="8">
         <v>4.2</v>
@@ -2162,7 +2181,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15" s="8">
         <v>18</v>
@@ -2270,7 +2289,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E19" s="8">
         <v>10</v>
@@ -2338,16 +2357,16 @@
         <v>44624</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E22" s="8">
         <v>12</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -2365,16 +2384,16 @@
         <v>44624</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E23" s="8">
         <v>178</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -2392,16 +2411,16 @@
         <v>44624</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E24" s="8">
         <v>178</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
@@ -2473,10 +2492,10 @@
         <v>44625</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E27" s="8">
         <v>3</v>
@@ -2501,7 +2520,7 @@
         <v>13</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E28" s="8">
         <v>3</v>
@@ -2526,7 +2545,7 @@
         <v>13</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E29" s="8">
         <v>12</v>
@@ -2551,7 +2570,7 @@
         <v>13</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E30" s="8">
         <v>22.9</v>
@@ -2576,7 +2595,7 @@
         <v>13</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E31" s="8">
         <v>12</v>
@@ -2657,7 +2676,7 @@
         <v>13</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E34" s="8">
         <v>12</v>
@@ -2681,10 +2700,10 @@
         <v>44627</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E35" s="8">
         <v>50</v>
@@ -2709,7 +2728,7 @@
         <v>13</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E36" s="8">
         <v>7</v>
@@ -2734,7 +2753,7 @@
         <v>13</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E37" s="8">
         <v>9.5</v>
@@ -2761,7 +2780,7 @@
         <v>13</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E38" s="8">
         <v>3</v>
@@ -2783,16 +2802,16 @@
         <v>44628</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E39" s="8">
         <v>9.9</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
@@ -2810,16 +2829,16 @@
         <v>44628</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E40" s="8">
         <v>37.83</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
@@ -2854,16 +2873,16 @@
         <v>44628</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E42" s="8">
         <v>907</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
@@ -2881,16 +2900,16 @@
         <v>44628</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E43" s="8">
         <v>907</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
@@ -2938,7 +2957,7 @@
         <v>13</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E45" s="8">
         <v>5.5</v>
@@ -2992,7 +3011,7 @@
         <v>13</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E47" s="8">
         <v>6</v>
@@ -3044,7 +3063,7 @@
         <v>13</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E49" s="8">
         <v>8.5</v>
@@ -3069,13 +3088,13 @@
         <v>13</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E50" s="8">
         <v>13</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
@@ -3096,13 +3115,13 @@
         <v>13</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E51" s="8">
         <v>8</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
@@ -3123,13 +3142,13 @@
         <v>13</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E52" s="8">
         <v>36.5</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
@@ -3150,7 +3169,7 @@
         <v>13</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E53" s="8">
         <v>4</v>
@@ -3202,7 +3221,7 @@
         <v>13</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E55" s="8">
         <v>13</v>
@@ -3256,7 +3275,7 @@
         <v>13</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E57" s="8">
         <v>3</v>
@@ -3278,10 +3297,10 @@
         <v>44631</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E58" s="8">
         <v>6</v>
@@ -3306,7 +3325,7 @@
         <v>13</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E59" s="8">
         <v>3</v>
@@ -3328,16 +3347,16 @@
         <v>44631</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E60" s="8">
         <v>12</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
@@ -3358,7 +3377,7 @@
         <v>13</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E61" s="8">
         <v>4</v>
@@ -3383,7 +3402,7 @@
         <v>13</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E62" s="8">
         <v>11.7</v>
@@ -3407,10 +3426,10 @@
         <v>44631</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E63" s="8">
         <v>10</v>
@@ -3462,7 +3481,7 @@
         <v>13</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E65" s="8">
         <v>3</v>
@@ -3487,7 +3506,7 @@
         <v>13</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E66" s="8">
         <v>15</v>
@@ -3512,7 +3531,7 @@
         <v>13</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E67" s="8">
         <v>12</v>
@@ -3535,23 +3554,23 @@
       <c r="B68" s="7">
         <v>44632</v>
       </c>
-      <c r="C68" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E68" s="18">
+      <c r="C68" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E68" s="8">
         <v>5</v>
       </c>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="18"/>
-      <c r="L68" s="18"/>
-      <c r="M68" s="23"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="15"/>
     </row>
     <row r="69" ht="18.5" customHeight="1" spans="1:13">
       <c r="A69" s="6">
@@ -3560,23 +3579,23 @@
       <c r="B69" s="7">
         <v>44632</v>
       </c>
-      <c r="C69" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D69" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E69" s="18">
+      <c r="C69" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E69" s="8">
         <v>6</v>
       </c>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18"/>
-      <c r="K69" s="18"/>
-      <c r="L69" s="18"/>
-      <c r="M69" s="23"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="15"/>
     </row>
     <row r="70" ht="18.5" customHeight="1" spans="1:13">
       <c r="A70" s="6">
@@ -3585,23 +3604,23 @@
       <c r="B70" s="7">
         <v>44632</v>
       </c>
-      <c r="C70" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D70" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E70" s="18">
+      <c r="C70" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E70" s="8">
         <v>6</v>
       </c>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
-      <c r="J70" s="18"/>
-      <c r="K70" s="18"/>
-      <c r="L70" s="18"/>
-      <c r="M70" s="23"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="15"/>
     </row>
     <row r="71" ht="18.5" customHeight="1" spans="1:13">
       <c r="A71" s="6">
@@ -3610,82 +3629,491 @@
       <c r="B71" s="7">
         <v>44632</v>
       </c>
-      <c r="C71" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E71" s="18">
+      <c r="C71" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E71" s="8">
         <v>702.5</v>
       </c>
-      <c r="F71" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="G71" s="18"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="18"/>
-      <c r="L71" s="18"/>
-      <c r="M71" s="23"/>
+      <c r="F71" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="15"/>
     </row>
     <row r="72" ht="18.5" customHeight="1" spans="1:13">
       <c r="A72" s="6">
         <v>71</v>
       </c>
-      <c r="B72" s="19">
+      <c r="B72" s="7">
         <v>44633</v>
       </c>
-      <c r="C72" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E72" s="18">
+      <c r="C72" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E72" s="8">
         <v>46.9</v>
       </c>
-      <c r="F72" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="G72" s="18"/>
-      <c r="H72" s="18"/>
-      <c r="I72" s="18"/>
-      <c r="J72" s="18"/>
-      <c r="K72" s="18"/>
-      <c r="L72" s="18"/>
-      <c r="M72" s="23"/>
+      <c r="F72" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="15"/>
     </row>
     <row r="73" ht="18.5" customHeight="1" spans="1:13">
-      <c r="A73" s="6"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="18"/>
-      <c r="I73" s="18"/>
-      <c r="J73" s="18"/>
-      <c r="K73" s="18"/>
-      <c r="L73" s="18"/>
-      <c r="M73" s="23"/>
+      <c r="A73" s="6">
+        <v>72</v>
+      </c>
+      <c r="B73" s="7">
+        <v>44633</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E73" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="15"/>
     </row>
     <row r="74" ht="18.5" customHeight="1" spans="1:13">
-      <c r="A74" s="10"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="22"/>
-      <c r="I74" s="22"/>
-      <c r="J74" s="22"/>
-      <c r="K74" s="22"/>
-      <c r="L74" s="22"/>
-      <c r="M74" s="24"/>
+      <c r="A74" s="6">
+        <v>73</v>
+      </c>
+      <c r="B74" s="7">
+        <v>44633</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" s="8">
+        <v>22.7</v>
+      </c>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="15"/>
+    </row>
+    <row r="75" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A75" s="6">
+        <v>74</v>
+      </c>
+      <c r="B75" s="7">
+        <v>44633</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E75" s="18">
+        <v>19.4</v>
+      </c>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
+      <c r="J75" s="18"/>
+      <c r="K75" s="18"/>
+      <c r="L75" s="18"/>
+      <c r="M75" s="23"/>
+    </row>
+    <row r="76" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A76" s="6">
+        <v>75</v>
+      </c>
+      <c r="B76" s="7">
+        <v>44634</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E76" s="8">
+        <v>13</v>
+      </c>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="18"/>
+      <c r="J76" s="18"/>
+      <c r="K76" s="18"/>
+      <c r="L76" s="18"/>
+      <c r="M76" s="23"/>
+    </row>
+    <row r="77" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A77" s="6">
+        <v>76</v>
+      </c>
+      <c r="B77" s="7">
+        <v>44634</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E77" s="18">
+        <v>18.4</v>
+      </c>
+      <c r="F77" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="18"/>
+      <c r="J77" s="18"/>
+      <c r="K77" s="18"/>
+      <c r="L77" s="18"/>
+      <c r="M77" s="23"/>
+    </row>
+    <row r="78" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A78" s="6">
+        <v>77</v>
+      </c>
+      <c r="B78" s="7">
+        <v>44634</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E78" s="18">
+        <v>6</v>
+      </c>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="18"/>
+      <c r="J78" s="18"/>
+      <c r="K78" s="18"/>
+      <c r="L78" s="18"/>
+      <c r="M78" s="23"/>
+    </row>
+    <row r="79" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A79" s="6">
+        <v>78</v>
+      </c>
+      <c r="B79" s="19">
+        <v>44635</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E79" s="18">
+        <v>239</v>
+      </c>
+      <c r="F79" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
+      <c r="J79" s="18"/>
+      <c r="K79" s="18"/>
+      <c r="L79" s="18"/>
+      <c r="M79" s="23"/>
+    </row>
+    <row r="80" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A80" s="6">
+        <v>79</v>
+      </c>
+      <c r="B80" s="19">
+        <v>44635</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E80" s="18">
+        <v>3.2</v>
+      </c>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="18"/>
+      <c r="J80" s="18"/>
+      <c r="K80" s="18"/>
+      <c r="L80" s="18"/>
+      <c r="M80" s="23"/>
+    </row>
+    <row r="81" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A81" s="6">
+        <v>80</v>
+      </c>
+      <c r="B81" s="19">
+        <v>44635</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E81" s="18">
+        <v>24</v>
+      </c>
+      <c r="F81" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="18"/>
+      <c r="K81" s="18"/>
+      <c r="L81" s="18"/>
+      <c r="M81" s="23"/>
+    </row>
+    <row r="82" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A82" s="6">
+        <v>81</v>
+      </c>
+      <c r="B82" s="19">
+        <v>44635</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E82" s="18">
+        <v>16.5</v>
+      </c>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="18"/>
+      <c r="J82" s="18"/>
+      <c r="K82" s="18"/>
+      <c r="L82" s="18"/>
+      <c r="M82" s="23"/>
+    </row>
+    <row r="83" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A83" s="6">
+        <v>82</v>
+      </c>
+      <c r="B83" s="19">
+        <v>44635</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83" s="18">
+        <v>8</v>
+      </c>
+      <c r="F83" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="18"/>
+      <c r="L83" s="18"/>
+      <c r="M83" s="23"/>
+    </row>
+    <row r="84" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A84" s="6">
+        <v>83</v>
+      </c>
+      <c r="B84" s="19">
+        <v>44635</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E84" s="18">
+        <v>3</v>
+      </c>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="18"/>
+      <c r="K84" s="18"/>
+      <c r="L84" s="18"/>
+      <c r="M84" s="23"/>
+    </row>
+    <row r="85" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A85" s="6">
+        <v>84</v>
+      </c>
+      <c r="B85" s="19">
+        <v>44635</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E85" s="18">
+        <v>10</v>
+      </c>
+      <c r="F85" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G85" s="18"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="18"/>
+      <c r="J85" s="18"/>
+      <c r="K85" s="18"/>
+      <c r="L85" s="18"/>
+      <c r="M85" s="23"/>
+    </row>
+    <row r="86" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A86" s="6">
+        <v>85</v>
+      </c>
+      <c r="B86" s="19">
+        <v>44635</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E86" s="18">
+        <v>2</v>
+      </c>
+      <c r="F86" s="18"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="18"/>
+      <c r="J86" s="18"/>
+      <c r="K86" s="18"/>
+      <c r="L86" s="18"/>
+      <c r="M86" s="23"/>
+    </row>
+    <row r="87" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A87" s="6">
+        <v>86</v>
+      </c>
+      <c r="B87" s="19">
+        <v>44636</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" s="18">
+        <v>7.5</v>
+      </c>
+      <c r="F87" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G87" s="18"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="18"/>
+      <c r="J87" s="18"/>
+      <c r="K87" s="18"/>
+      <c r="L87" s="18"/>
+      <c r="M87" s="23"/>
+    </row>
+    <row r="88" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A88" s="6">
+        <v>87</v>
+      </c>
+      <c r="B88" s="19">
+        <v>44636</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E88" s="18">
+        <v>19.9</v>
+      </c>
+      <c r="F88" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G88" s="18"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="18"/>
+      <c r="J88" s="18"/>
+      <c r="K88" s="18"/>
+      <c r="L88" s="18"/>
+      <c r="M88" s="23"/>
+    </row>
+    <row r="89" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A89" s="10">
+        <v>88</v>
+      </c>
+      <c r="B89" s="20">
+        <v>44636</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D89" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E89" s="22">
+        <v>89.46</v>
+      </c>
+      <c r="F89" s="22"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="22"/>
+      <c r="I89" s="22"/>
+      <c r="J89" s="22"/>
+      <c r="K89" s="22"/>
+      <c r="L89" s="22"/>
+      <c r="M89" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3758,25 +4186,25 @@
         <v>44612</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E2" s="5">
         <v>55.1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="H2" s="5">
         <v>7</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>18</v>
@@ -3797,19 +4225,19 @@
         <v>13</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E3" s="8">
         <v>7</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K3" s="15">
         <f>-SUM(E2:E100)</f>
@@ -3833,13 +4261,13 @@
         <v>18</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K4" s="15">
         <f>SUM(H1:H100)</f>
@@ -3854,16 +4282,16 @@
         <v>44614</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E5" s="8">
         <v>16.5</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -3882,7 +4310,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E6" s="8">
         <v>3</v>
@@ -3905,7 +4333,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E7" s="8">
         <v>5.75</v>
@@ -3928,7 +4356,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E8" s="8">
         <v>25.9</v>
@@ -3951,13 +4379,13 @@
         <v>13</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E9" s="8">
         <v>147.5</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -3976,7 +4404,7 @@
         <v>13</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E10" s="8">
         <v>15.9</v>
@@ -3996,10 +4424,10 @@
         <v>44614</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E11" s="8">
         <v>3.2</v>
@@ -4022,7 +4450,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E12" s="8">
         <v>10</v>
@@ -4045,7 +4473,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E13" s="8">
         <v>3</v>
@@ -4065,10 +4493,10 @@
         <v>44616</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E14" s="8">
         <v>8</v>
@@ -4114,13 +4542,13 @@
         <v>13</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E16" s="8">
         <v>14</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -4139,7 +4567,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E17" s="8">
         <v>2.5</v>
@@ -4162,13 +4590,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E18" s="8">
         <v>19.9</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -4187,7 +4615,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E19" s="8">
         <v>12</v>
@@ -4210,7 +4638,7 @@
         <v>13</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E20" s="8">
         <v>16.2</v>
@@ -4230,16 +4658,16 @@
         <v>44617</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E21" s="8">
         <v>12</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -4255,16 +4683,16 @@
         <v>44617</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E22" s="8">
         <v>12</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -4283,13 +4711,13 @@
         <v>13</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E23" s="8">
         <v>50.32</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -4331,7 +4759,7 @@
         <v>13</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E25" s="8">
         <v>12</v>
@@ -4351,16 +4779,16 @@
         <v>44618</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E26" s="8">
         <v>13</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
@@ -4379,7 +4807,7 @@
         <v>13</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E27" s="8">
         <v>27</v>
@@ -4402,7 +4830,7 @@
         <v>13</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E28" s="8">
         <v>2.5</v>
@@ -4425,7 +4853,7 @@
         <v>13</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E29" s="8">
         <v>11.4</v>
@@ -4471,7 +4899,7 @@
         <v>13</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E31" s="8">
         <v>14</v>
@@ -4494,7 +4922,7 @@
         <v>13</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E32" s="8">
         <v>22.9</v>
@@ -4514,16 +4942,16 @@
         <v>44620</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E33" s="8">
         <v>88</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
@@ -4588,7 +5016,7 @@
         <v>13</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E36" s="8">
         <v>4</v>
@@ -4608,16 +5036,16 @@
         <v>44620</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E37" s="12">
         <v>77.2</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
@@ -4697,23 +5125,23 @@
         <v>44613</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E2" s="5">
         <v>10</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H2" s="5">
         <v>2000</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>18</v>
@@ -4731,22 +5159,22 @@
         <v>44613</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E3" s="8">
         <v>15</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K3" s="15">
         <f>-SUM(E2:E100)</f>
@@ -4764,7 +5192,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E4" s="8">
         <v>4.5</v>
@@ -4774,7 +5202,7 @@
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K4" s="15">
         <f>SUM(H1:H100)</f>
@@ -4792,13 +5220,13 @@
         <v>13</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E5" s="8">
         <v>47</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -4814,16 +5242,16 @@
         <v>44613</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E6" s="8">
         <v>39</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -4839,16 +5267,16 @@
         <v>44613</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E7" s="8">
         <v>8.8</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -4864,16 +5292,16 @@
         <v>44613</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E8" s="8">
         <v>54.8</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -4889,16 +5317,16 @@
         <v>44612</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E9" s="8">
         <v>28</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -4914,16 +5342,16 @@
         <v>44611</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E10" s="8">
         <v>22</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -4939,16 +5367,16 @@
         <v>44610</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E11" s="8">
         <v>186</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -4964,10 +5392,10 @@
         <v>44613</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E12" s="8">
         <v>7</v>
@@ -4987,16 +5415,16 @@
         <v>44615</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E13" s="8">
         <v>106.4</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -5012,16 +5440,16 @@
         <v>44615</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E14" s="12">
         <v>29.9</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
@@ -5101,19 +5529,19 @@
         <v>44578</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E2" s="5">
         <v>112.42</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H2" s="5">
         <f>400+1400</f>
@@ -5136,26 +5564,26 @@
         <v>44585</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E3" s="8">
         <v>679</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="H3" s="8">
         <v>6</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K3" s="15">
         <f>-SUM(E2:E100)</f>
@@ -5170,28 +5598,28 @@
         <v>44585</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E4" s="8">
         <v>104.9</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H4" s="8">
         <v>50</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K4" s="15">
         <f>SUM(H1:H100)</f>
@@ -5206,16 +5634,16 @@
         <v>44598</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E5" s="8">
         <v>500</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>16</v>
@@ -5235,22 +5663,22 @@
         <v>44596</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E6" s="8">
         <v>335.54</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K6" s="15">
         <f>SUM(E2,E4,E5,E6,E7,E8,E9,E12,E14)</f>
@@ -5270,7 +5698,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="K7" s="15">
         <f>SUM(E3,E10,E11,E12)</f>
@@ -5290,7 +5718,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K8" s="15">
         <f>SUM([1]Sheet1!E11,E20,E22,E28,E29,E26)</f>
@@ -5320,16 +5748,16 @@
         <v>44604</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E10" s="8">
         <v>63</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -5345,16 +5773,16 @@
         <v>44605</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E11" s="8">
         <v>56.72</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -5370,16 +5798,16 @@
         <v>44607</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E12" s="8">
         <v>76</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -5395,16 +5823,16 @@
         <v>44607</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E13" s="8">
         <v>119.31</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -5420,16 +5848,16 @@
         <v>44605</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E14" s="8">
         <v>118</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -5445,17 +5873,17 @@
         <v>44603</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E15" s="8">
         <f>30+50+30</f>
         <v>110</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
@@ -5471,17 +5899,17 @@
         <v>44610</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E16" s="8">
         <f>12+12+5+17+12+12-10-10-8-11</f>
         <v>31</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -5512,16 +5940,16 @@
         <v>44600</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E18" s="8">
         <v>92</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -5537,16 +5965,16 @@
         <v>44602</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E19" s="8">
         <v>29</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
@@ -5562,16 +5990,16 @@
         <v>44609</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E20" s="8">
         <v>36</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
@@ -5587,16 +6015,16 @@
         <v>44587</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E21" s="8">
         <v>29.9</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -5612,16 +6040,16 @@
         <v>44595</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E22" s="8">
         <v>118.5</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -5637,16 +6065,16 @@
         <v>44610</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E23" s="8">
         <v>1.78</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -5665,14 +6093,14 @@
         <v>13</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E24" s="8">
         <f>3+4+4+3+10+6+6+3+9+7+2+8+5+3+5+18</f>
         <v>96</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
@@ -5688,16 +6116,16 @@
         <v>44585</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E25" s="8">
         <v>34</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
@@ -5720,7 +6148,7 @@
         <v>183</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
@@ -5736,16 +6164,16 @@
         <v>44592</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E27" s="8">
         <v>4</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -5761,14 +6189,14 @@
         <v>44586</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8">
         <v>110</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -5784,14 +6212,14 @@
         <v>44586</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8">
         <v>208</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
@@ -5807,16 +6235,16 @@
         <v>44582</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E30" s="8">
         <v>40</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -5832,16 +6260,16 @@
         <v>44582</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E31" s="8">
         <v>9.9</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
@@ -5857,14 +6285,14 @@
         <v>44582</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8">
         <v>20</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
@@ -5883,7 +6311,7 @@
         <v>13</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E33" s="8">
         <v>27</v>
@@ -5906,7 +6334,7 @@
         <v>13</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E34" s="8">
         <v>35</v>
@@ -5949,16 +6377,16 @@
         <v>44612</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E36" s="8">
         <v>10</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
@@ -5974,16 +6402,16 @@
         <v>44612</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E37" s="8">
         <v>228</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
@@ -6002,7 +6430,7 @@
         <v>13</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E38" s="8">
         <v>3</v>
@@ -6022,10 +6450,10 @@
         <v>44611</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E39" s="8">
         <v>30</v>

--- a/bills.xlsx
+++ b/bills.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="133">
   <si>
     <t>编号</t>
   </si>
@@ -134,52 +134,49 @@
     <t>退货</t>
   </si>
   <si>
+    <t>洗衣服</t>
+  </si>
+  <si>
+    <t>饮料</t>
+  </si>
+  <si>
+    <t>奶茶</t>
+  </si>
+  <si>
+    <t>充卡</t>
+  </si>
+  <si>
+    <t>运费险</t>
+  </si>
+  <si>
     <t>上衣</t>
   </si>
   <si>
+    <t>白色打底衫</t>
+  </si>
+  <si>
+    <t>鞋子</t>
+  </si>
+  <si>
+    <t>Nike Air Force</t>
+  </si>
+  <si>
+    <t>颢颢</t>
+  </si>
+  <si>
+    <t xml:space="preserve">餐饮 </t>
+  </si>
+  <si>
+    <t>交通</t>
+  </si>
+  <si>
+    <t>地铁</t>
+  </si>
+  <si>
+    <t>外卖</t>
+  </si>
+  <si>
     <t>外套</t>
-  </si>
-  <si>
-    <t>洗衣服</t>
-  </si>
-  <si>
-    <t>饮料</t>
-  </si>
-  <si>
-    <t>奶茶</t>
-  </si>
-  <si>
-    <t>充卡</t>
-  </si>
-  <si>
-    <t>运费险</t>
-  </si>
-  <si>
-    <t>白色打底衫</t>
-  </si>
-  <si>
-    <t>鞋子</t>
-  </si>
-  <si>
-    <t>Nike Air Force</t>
-  </si>
-  <si>
-    <t>NIke Air Force</t>
-  </si>
-  <si>
-    <t>颢颢</t>
-  </si>
-  <si>
-    <t xml:space="preserve">餐饮 </t>
-  </si>
-  <si>
-    <t>交通</t>
-  </si>
-  <si>
-    <t>地铁</t>
-  </si>
-  <si>
-    <t>外卖</t>
   </si>
   <si>
     <t>公交</t>
@@ -431,8 +428,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -464,9 +461,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -480,30 +490,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,7 +504,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,15 +535,22 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -572,13 +574,22 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -588,27 +599,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -629,72 +626,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -707,7 +638,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,73 +794,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,25 +806,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1040,32 +1031,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1081,6 +1051,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1118,22 +1099,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1143,10 +1134,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1155,16 +1146,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1179,113 +1170,113 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1333,30 +1324,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1730,8 +1697,8 @@
   <sheetPr/>
   <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="I77" sqref="I77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1824,14 +1791,14 @@
       </c>
       <c r="K2" s="5">
         <f>SUM(H2:H100)-SUM(E1:E100)</f>
-        <v>-3026.92</v>
+        <v>-1061.42</v>
       </c>
       <c r="L2" s="5">
         <v>1200</v>
       </c>
       <c r="M2" s="14">
         <f>SUM(L2)+K3</f>
-        <v>-3047.2</v>
+        <v>-1081.7</v>
       </c>
     </row>
     <row r="3" ht="18.5" customHeight="1" spans="1:13">
@@ -1867,7 +1834,7 @@
       </c>
       <c r="K3" s="8">
         <f>-SUM(E2:E100)</f>
-        <v>-4247.2</v>
+        <v>-2281.7</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="15"/>
@@ -2380,21 +2347,11 @@
       <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" s="7">
-        <v>44624</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="8">
-        <v>178</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -2407,21 +2364,11 @@
       <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="B24" s="7">
-        <v>44624</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E24" s="8">
-        <v>178</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -2495,7 +2442,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E27" s="8">
         <v>3</v>
@@ -2520,7 +2467,7 @@
         <v>13</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E28" s="8">
         <v>3</v>
@@ -2545,7 +2492,7 @@
         <v>13</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E29" s="8">
         <v>12</v>
@@ -2703,7 +2650,7 @@
         <v>26</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E35" s="8">
         <v>50</v>
@@ -2728,7 +2675,7 @@
         <v>13</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E36" s="8">
         <v>7</v>
@@ -2780,7 +2727,7 @@
         <v>13</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E38" s="8">
         <v>3</v>
@@ -2811,7 +2758,7 @@
         <v>9.9</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
@@ -2832,13 +2779,13 @@
         <v>28</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E40" s="8">
         <v>37.83</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
@@ -2876,13 +2823,13 @@
         <v>28</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E42" s="8">
         <v>907</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
@@ -2896,21 +2843,11 @@
       <c r="A43" s="6">
         <v>42</v>
       </c>
-      <c r="B43" s="7">
-        <v>44628</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E43" s="8">
-        <v>907</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>47</v>
-      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
@@ -3011,7 +2948,7 @@
         <v>13</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E47" s="8">
         <v>6</v>
@@ -3088,13 +3025,13 @@
         <v>13</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E50" s="8">
         <v>13</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
@@ -3115,13 +3052,13 @@
         <v>13</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E51" s="8">
         <v>8</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
@@ -3148,7 +3085,7 @@
         <v>36.5</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
@@ -3275,7 +3212,7 @@
         <v>13</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E57" s="8">
         <v>3</v>
@@ -3300,7 +3237,7 @@
         <v>26</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E58" s="8">
         <v>6</v>
@@ -3325,7 +3262,7 @@
         <v>13</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E59" s="8">
         <v>3</v>
@@ -3377,7 +3314,7 @@
         <v>13</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E61" s="8">
         <v>4</v>
@@ -3426,10 +3363,10 @@
         <v>44631</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E63" s="8">
         <v>10</v>
@@ -3481,7 +3418,7 @@
         <v>13</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E65" s="8">
         <v>3</v>
@@ -3506,7 +3443,7 @@
         <v>13</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E66" s="8">
         <v>15</v>
@@ -3558,7 +3495,7 @@
         <v>13</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E68" s="8">
         <v>5</v>
@@ -3580,10 +3517,10 @@
         <v>44632</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E69" s="8">
         <v>6</v>
@@ -3605,10 +3542,10 @@
         <v>44632</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E70" s="8">
         <v>6</v>
@@ -3626,21 +3563,11 @@
       <c r="A71" s="6">
         <v>70</v>
       </c>
-      <c r="B71" s="7">
-        <v>44632</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E71" s="8">
-        <v>702.5</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>46</v>
-      </c>
+      <c r="B71" s="7"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
       <c r="I71" s="8"/>
@@ -3666,7 +3593,7 @@
         <v>46.9</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
@@ -3683,13 +3610,13 @@
       <c r="B73" s="7">
         <v>44633</v>
       </c>
-      <c r="C73" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E73" s="18">
+      <c r="C73" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E73" s="8">
         <v>2.5</v>
       </c>
       <c r="F73" s="8"/>
@@ -3733,23 +3660,23 @@
       <c r="B75" s="7">
         <v>44633</v>
       </c>
-      <c r="C75" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75" s="17" t="s">
+      <c r="C75" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E75" s="18">
+      <c r="E75" s="8">
         <v>19.4</v>
       </c>
-      <c r="F75" s="18"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="18"/>
-      <c r="I75" s="18"/>
-      <c r="J75" s="18"/>
-      <c r="K75" s="18"/>
-      <c r="L75" s="18"/>
-      <c r="M75" s="23"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="15"/>
     </row>
     <row r="76" ht="18.5" customHeight="1" spans="1:13">
       <c r="A76" s="6">
@@ -3762,19 +3689,19 @@
         <v>13</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E76" s="8">
         <v>13</v>
       </c>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="18"/>
-      <c r="I76" s="18"/>
-      <c r="J76" s="18"/>
-      <c r="K76" s="18"/>
-      <c r="L76" s="18"/>
-      <c r="M76" s="23"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="15"/>
     </row>
     <row r="77" ht="18.5" customHeight="1" spans="1:13">
       <c r="A77" s="6">
@@ -3783,25 +3710,25 @@
       <c r="B77" s="7">
         <v>44634</v>
       </c>
-      <c r="C77" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D77" s="17" t="s">
+      <c r="C77" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E77" s="18">
+      <c r="E77" s="8">
         <v>18.4</v>
       </c>
-      <c r="F77" s="17" t="s">
+      <c r="F77" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G77" s="18"/>
-      <c r="H77" s="18"/>
-      <c r="I77" s="18"/>
-      <c r="J77" s="18"/>
-      <c r="K77" s="18"/>
-      <c r="L77" s="18"/>
-      <c r="M77" s="23"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="15"/>
     </row>
     <row r="78" ht="18.5" customHeight="1" spans="1:13">
       <c r="A78" s="6">
@@ -3810,310 +3737,310 @@
       <c r="B78" s="7">
         <v>44634</v>
       </c>
-      <c r="C78" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E78" s="18">
+      <c r="C78" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E78" s="8">
         <v>6</v>
       </c>
-      <c r="F78" s="18"/>
-      <c r="G78" s="18"/>
-      <c r="H78" s="18"/>
-      <c r="I78" s="18"/>
-      <c r="J78" s="18"/>
-      <c r="K78" s="18"/>
-      <c r="L78" s="18"/>
-      <c r="M78" s="23"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="15"/>
     </row>
     <row r="79" ht="18.5" customHeight="1" spans="1:13">
       <c r="A79" s="6">
         <v>78</v>
       </c>
-      <c r="B79" s="19">
+      <c r="B79" s="7">
         <v>44635</v>
       </c>
-      <c r="C79" s="17" t="s">
+      <c r="C79" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D79" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E79" s="18">
+      <c r="D79" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E79" s="8">
         <v>239</v>
       </c>
-      <c r="F79" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="18"/>
-      <c r="J79" s="18"/>
-      <c r="K79" s="18"/>
-      <c r="L79" s="18"/>
-      <c r="M79" s="23"/>
+      <c r="F79" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="15"/>
     </row>
     <row r="80" ht="18.5" customHeight="1" spans="1:13">
       <c r="A80" s="6">
         <v>79</v>
       </c>
-      <c r="B80" s="19">
+      <c r="B80" s="7">
         <v>44635</v>
       </c>
-      <c r="C80" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E80" s="18">
+      <c r="C80" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E80" s="8">
         <v>3.2</v>
       </c>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="18"/>
-      <c r="K80" s="18"/>
-      <c r="L80" s="18"/>
-      <c r="M80" s="23"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="15"/>
     </row>
     <row r="81" ht="18.5" customHeight="1" spans="1:13">
       <c r="A81" s="6">
         <v>80</v>
       </c>
-      <c r="B81" s="19">
+      <c r="B81" s="7">
         <v>44635</v>
       </c>
-      <c r="C81" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D81" s="17" t="s">
+      <c r="C81" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E81" s="18">
+      <c r="E81" s="8">
         <v>24</v>
       </c>
-      <c r="F81" s="17" t="s">
+      <c r="F81" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="18"/>
-      <c r="J81" s="18"/>
-      <c r="K81" s="18"/>
-      <c r="L81" s="18"/>
-      <c r="M81" s="23"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="15"/>
     </row>
     <row r="82" ht="18.5" customHeight="1" spans="1:13">
       <c r="A82" s="6">
         <v>81</v>
       </c>
-      <c r="B82" s="19">
+      <c r="B82" s="7">
         <v>44635</v>
       </c>
-      <c r="C82" s="17" t="s">
+      <c r="C82" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D82" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D82" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E82" s="18">
+      <c r="E82" s="8">
         <v>16.5</v>
       </c>
-      <c r="F82" s="18"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="18"/>
-      <c r="I82" s="18"/>
-      <c r="J82" s="18"/>
-      <c r="K82" s="18"/>
-      <c r="L82" s="18"/>
-      <c r="M82" s="23"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="8"/>
+      <c r="M82" s="15"/>
     </row>
     <row r="83" ht="18.5" customHeight="1" spans="1:13">
       <c r="A83" s="6">
         <v>82</v>
       </c>
-      <c r="B83" s="19">
+      <c r="B83" s="7">
         <v>44635</v>
       </c>
-      <c r="C83" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D83" s="17" t="s">
+      <c r="C83" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E83" s="18">
+      <c r="E83" s="8">
         <v>8</v>
       </c>
-      <c r="F83" s="17" t="s">
+      <c r="F83" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G83" s="18"/>
-      <c r="H83" s="18"/>
-      <c r="I83" s="18"/>
-      <c r="J83" s="18"/>
-      <c r="K83" s="18"/>
-      <c r="L83" s="18"/>
-      <c r="M83" s="23"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="8"/>
+      <c r="M83" s="15"/>
     </row>
     <row r="84" ht="18.5" customHeight="1" spans="1:13">
       <c r="A84" s="6">
         <v>83</v>
       </c>
-      <c r="B84" s="19">
+      <c r="B84" s="7">
         <v>44635</v>
       </c>
-      <c r="C84" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D84" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E84" s="18">
+      <c r="C84" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E84" s="8">
         <v>3</v>
       </c>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="18"/>
-      <c r="I84" s="18"/>
-      <c r="J84" s="18"/>
-      <c r="K84" s="18"/>
-      <c r="L84" s="18"/>
-      <c r="M84" s="23"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="8"/>
+      <c r="L84" s="8"/>
+      <c r="M84" s="15"/>
     </row>
     <row r="85" ht="18.5" customHeight="1" spans="1:13">
       <c r="A85" s="6">
         <v>84</v>
       </c>
-      <c r="B85" s="19">
+      <c r="B85" s="7">
         <v>44635</v>
       </c>
-      <c r="C85" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D85" s="17" t="s">
+      <c r="C85" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E85" s="18">
+      <c r="E85" s="8">
         <v>10</v>
       </c>
-      <c r="F85" s="17" t="s">
+      <c r="F85" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G85" s="18"/>
-      <c r="H85" s="18"/>
-      <c r="I85" s="18"/>
-      <c r="J85" s="18"/>
-      <c r="K85" s="18"/>
-      <c r="L85" s="18"/>
-      <c r="M85" s="23"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="8"/>
+      <c r="K85" s="8"/>
+      <c r="L85" s="8"/>
+      <c r="M85" s="15"/>
     </row>
     <row r="86" ht="18.5" customHeight="1" spans="1:13">
       <c r="A86" s="6">
         <v>85</v>
       </c>
-      <c r="B86" s="19">
+      <c r="B86" s="7">
         <v>44635</v>
       </c>
-      <c r="C86" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D86" s="17" t="s">
+      <c r="C86" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E86" s="18">
+      <c r="E86" s="8">
         <v>2</v>
       </c>
-      <c r="F86" s="18"/>
-      <c r="G86" s="18"/>
-      <c r="H86" s="18"/>
-      <c r="I86" s="18"/>
-      <c r="J86" s="18"/>
-      <c r="K86" s="18"/>
-      <c r="L86" s="18"/>
-      <c r="M86" s="23"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="8"/>
+      <c r="L86" s="8"/>
+      <c r="M86" s="15"/>
     </row>
     <row r="87" ht="18.5" customHeight="1" spans="1:13">
       <c r="A87" s="6">
         <v>86</v>
       </c>
-      <c r="B87" s="19">
+      <c r="B87" s="7">
         <v>44636</v>
       </c>
-      <c r="C87" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D87" s="17" t="s">
+      <c r="C87" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="18">
+      <c r="E87" s="8">
         <v>7.5</v>
       </c>
-      <c r="F87" s="17" t="s">
+      <c r="F87" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G87" s="18"/>
-      <c r="H87" s="18"/>
-      <c r="I87" s="18"/>
-      <c r="J87" s="18"/>
-      <c r="K87" s="18"/>
-      <c r="L87" s="18"/>
-      <c r="M87" s="23"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="8"/>
+      <c r="M87" s="15"/>
     </row>
     <row r="88" ht="18.5" customHeight="1" spans="1:13">
       <c r="A88" s="6">
         <v>87</v>
       </c>
-      <c r="B88" s="19">
+      <c r="B88" s="7">
         <v>44636</v>
       </c>
-      <c r="C88" s="17" t="s">
+      <c r="C88" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D88" s="17" t="s">
+      <c r="D88" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E88" s="18">
+      <c r="E88" s="8">
         <v>19.9</v>
       </c>
-      <c r="F88" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="G88" s="18"/>
-      <c r="H88" s="18"/>
-      <c r="I88" s="18"/>
-      <c r="J88" s="18"/>
-      <c r="K88" s="18"/>
-      <c r="L88" s="18"/>
-      <c r="M88" s="23"/>
+      <c r="F88" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="8"/>
+      <c r="M88" s="15"/>
     </row>
     <row r="89" ht="18.5" customHeight="1" spans="1:13">
       <c r="A89" s="10">
         <v>88</v>
       </c>
-      <c r="B89" s="20">
+      <c r="B89" s="11">
         <v>44636</v>
       </c>
-      <c r="C89" s="21" t="s">
+      <c r="C89" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D89" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="E89" s="22">
+      <c r="D89" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E89" s="12">
         <v>89.46</v>
       </c>
-      <c r="F89" s="22"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="22"/>
-      <c r="I89" s="22"/>
-      <c r="J89" s="22"/>
-      <c r="K89" s="22"/>
-      <c r="L89" s="22"/>
-      <c r="M89" s="24"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="12"/>
+      <c r="L89" s="12"/>
+      <c r="M89" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4186,16 +4113,16 @@
         <v>44612</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="E2" s="5">
         <v>55.1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>20</v>
@@ -4225,13 +4152,13 @@
         <v>13</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E3" s="8">
         <v>7</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -4261,7 +4188,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -4282,16 +4209,16 @@
         <v>44614</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5" s="8">
         <v>16.5</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -4310,7 +4237,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E6" s="8">
         <v>3</v>
@@ -4356,7 +4283,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E8" s="8">
         <v>25.9</v>
@@ -4379,13 +4306,13 @@
         <v>13</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9" s="8">
         <v>147.5</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -4404,7 +4331,7 @@
         <v>13</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" s="8">
         <v>15.9</v>
@@ -4424,10 +4351,10 @@
         <v>44614</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" s="8">
         <v>3.2</v>
@@ -4450,7 +4377,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" s="8">
         <v>10</v>
@@ -4473,7 +4400,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E13" s="8">
         <v>3</v>
@@ -4496,7 +4423,7 @@
         <v>26</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E14" s="8">
         <v>8</v>
@@ -4542,13 +4469,13 @@
         <v>13</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E16" s="8">
         <v>14</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -4567,7 +4494,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E17" s="8">
         <v>2.5</v>
@@ -4596,7 +4523,7 @@
         <v>19.9</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -4615,7 +4542,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E19" s="8">
         <v>12</v>
@@ -4658,10 +4585,10 @@
         <v>44617</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E21" s="8">
         <v>12</v>
@@ -4683,10 +4610,10 @@
         <v>44617</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E22" s="8">
         <v>12</v>
@@ -4711,13 +4638,13 @@
         <v>13</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E23" s="8">
         <v>50.32</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -4782,13 +4709,13 @@
         <v>26</v>
       </c>
       <c r="D26" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="8">
+        <v>13</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="E26" s="8">
-        <v>13</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>71</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
@@ -4807,7 +4734,7 @@
         <v>13</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" s="8">
         <v>27</v>
@@ -4830,7 +4757,7 @@
         <v>13</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E28" s="8">
         <v>2.5</v>
@@ -4853,7 +4780,7 @@
         <v>13</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E29" s="8">
         <v>11.4</v>
@@ -4942,16 +4869,16 @@
         <v>44620</v>
       </c>
       <c r="C33" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="E33" s="8">
         <v>88</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
@@ -5016,7 +4943,7 @@
         <v>13</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E36" s="8">
         <v>4</v>
@@ -5036,16 +4963,16 @@
         <v>44620</v>
       </c>
       <c r="C37" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>76</v>
       </c>
       <c r="E37" s="12">
         <v>77.2</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
@@ -5128,20 +5055,20 @@
         <v>26</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E2" s="5">
         <v>10</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H2" s="5">
         <v>2000</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>18</v>
@@ -5159,16 +5086,16 @@
         <v>44613</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" s="8">
         <v>15</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -5192,7 +5119,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E4" s="8">
         <v>4.5</v>
@@ -5220,13 +5147,13 @@
         <v>13</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5" s="8">
         <v>47</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -5242,7 +5169,7 @@
         <v>44613</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>31</v>
@@ -5251,7 +5178,7 @@
         <v>39</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -5267,16 +5194,16 @@
         <v>44613</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="8">
         <v>8.8</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -5301,7 +5228,7 @@
         <v>54.8</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -5326,7 +5253,7 @@
         <v>28</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -5351,7 +5278,7 @@
         <v>22</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -5367,16 +5294,16 @@
         <v>44610</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E11" s="8">
         <v>186</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -5392,10 +5319,10 @@
         <v>44613</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E12" s="8">
         <v>7</v>
@@ -5418,13 +5345,13 @@
         <v>26</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" s="8">
         <v>106.4</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -5443,13 +5370,13 @@
         <v>26</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E14" s="12">
         <v>29.9</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
@@ -5529,19 +5456,19 @@
         <v>44578</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="E2" s="5">
         <v>112.42</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="H2" s="5">
         <f>400+1400</f>
@@ -5564,16 +5491,16 @@
         <v>44585</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E3" s="8">
         <v>679</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>20</v>
@@ -5598,16 +5525,16 @@
         <v>44585</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="8">
         <v>104.9</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>29</v>
@@ -5616,7 +5543,7 @@
         <v>50</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>25</v>
@@ -5634,16 +5561,16 @@
         <v>44598</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" s="8">
         <v>500</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>16</v>
@@ -5663,22 +5590,22 @@
         <v>44596</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E6" s="8">
         <v>335.54</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K6" s="15">
         <f>SUM(E2,E4,E5,E6,E7,E8,E9,E12,E14)</f>
@@ -5698,7 +5625,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K7" s="15">
         <f>SUM(E3,E10,E11,E12)</f>
@@ -5718,7 +5645,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K8" s="15">
         <f>SUM([1]Sheet1!E11,E20,E22,E28,E29,E26)</f>
@@ -5748,16 +5675,16 @@
         <v>44604</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="E10" s="8">
         <v>63</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -5773,16 +5700,16 @@
         <v>44605</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="E11" s="8">
         <v>56.72</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -5798,16 +5725,16 @@
         <v>44607</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E12" s="8">
         <v>76</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -5823,16 +5750,16 @@
         <v>44607</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E13" s="8">
         <v>119.31</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -5848,16 +5775,16 @@
         <v>44605</v>
       </c>
       <c r="C14" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="E14" s="8">
         <v>118</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -5899,17 +5826,17 @@
         <v>44610</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E16" s="8">
         <f>12+12+5+17+12+12-10-10-8-11</f>
         <v>31</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -5940,16 +5867,16 @@
         <v>44600</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>111</v>
       </c>
       <c r="E18" s="8">
         <v>92</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -5965,16 +5892,16 @@
         <v>44602</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E19" s="8">
         <v>29</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
@@ -5990,16 +5917,16 @@
         <v>44609</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E20" s="8">
         <v>36</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
@@ -6015,16 +5942,16 @@
         <v>44587</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E21" s="8">
         <v>29.9</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -6040,16 +5967,16 @@
         <v>44595</v>
       </c>
       <c r="C22" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>118</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>119</v>
       </c>
       <c r="E22" s="8">
         <v>118.5</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -6065,16 +5992,16 @@
         <v>44610</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E23" s="8">
         <v>1.78</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -6093,14 +6020,14 @@
         <v>13</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E24" s="8">
         <f>3+4+4+3+10+6+6+3+9+7+2+8+5+3+5+18</f>
         <v>96</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
@@ -6119,13 +6046,13 @@
         <v>26</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E25" s="8">
         <v>34</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
@@ -6148,7 +6075,7 @@
         <v>183</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
@@ -6164,16 +6091,16 @@
         <v>44592</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E27" s="8">
         <v>4</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -6196,7 +6123,7 @@
         <v>110</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -6219,7 +6146,7 @@
         <v>208</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
@@ -6235,16 +6162,16 @@
         <v>44582</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E30" s="8">
         <v>40</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -6260,16 +6187,16 @@
         <v>44582</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E31" s="8">
         <v>9.9</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
@@ -6292,7 +6219,7 @@
         <v>20</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
@@ -6311,7 +6238,7 @@
         <v>13</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E33" s="8">
         <v>27</v>
@@ -6334,7 +6261,7 @@
         <v>13</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E34" s="8">
         <v>35</v>
@@ -6386,7 +6313,7 @@
         <v>10</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
@@ -6405,13 +6332,13 @@
         <v>26</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E37" s="8">
         <v>228</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
@@ -6430,7 +6357,7 @@
         <v>13</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E38" s="8">
         <v>3</v>

--- a/bills.xlsx
+++ b/bills.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="133">
   <si>
     <t>编号</t>
   </si>
@@ -194,6 +194,9 @@
     <t>饰品</t>
   </si>
   <si>
+    <t>聚餐</t>
+  </si>
+  <si>
     <t>购物</t>
   </si>
   <si>
@@ -267,9 +270,6 @@
   </si>
   <si>
     <t>手机贴膜</t>
-  </si>
-  <si>
-    <t>聚餐</t>
   </si>
   <si>
     <t>实验室聚餐</t>
@@ -427,10 +427,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -462,14 +462,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -483,28 +490,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,9 +512,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,13 +533,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -581,6 +568,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -597,15 +598,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -626,7 +626,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,7 +704,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,37 +776,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,121 +812,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,15 +1037,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1062,6 +1059,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1099,6 +1111,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1113,31 +1134,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1146,137 +1152,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1324,6 +1330,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1695,10 +1719,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M89"/>
+  <dimension ref="A1:M98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="J93" sqref="J93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1714,7 +1738,7 @@
     <col min="10" max="10" width="8.30973451327434" customWidth="1"/>
     <col min="11" max="11" width="10.7964601769912" customWidth="1"/>
     <col min="12" max="12" width="7.25663716814159" customWidth="1"/>
-    <col min="13" max="13" width="9.38053097345133" customWidth="1"/>
+    <col min="13" max="13" width="10.4424778761062" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:13">
@@ -1791,14 +1815,14 @@
       </c>
       <c r="K2" s="5">
         <f>SUM(H2:H100)-SUM(E1:E100)</f>
-        <v>-1061.42</v>
+        <v>-1167.29</v>
       </c>
       <c r="L2" s="5">
         <v>1200</v>
       </c>
       <c r="M2" s="14">
         <f>SUM(L2)+K3</f>
-        <v>-1081.7</v>
+        <v>-1187.57</v>
       </c>
     </row>
     <row r="3" ht="18.5" customHeight="1" spans="1:13">
@@ -1834,7 +1858,7 @@
       </c>
       <c r="K3" s="8">
         <f>-SUM(E2:E100)</f>
-        <v>-2281.7</v>
+        <v>-2387.57</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="15"/>
@@ -4018,29 +4042,256 @@
       <c r="M88" s="15"/>
     </row>
     <row r="89" ht="18.5" customHeight="1" spans="1:13">
-      <c r="A89" s="10">
+      <c r="A89" s="6">
         <v>88</v>
       </c>
-      <c r="B89" s="11">
+      <c r="B89" s="7">
         <v>44636</v>
       </c>
-      <c r="C89" s="12" t="s">
+      <c r="C89" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D89" s="12" t="s">
+      <c r="D89" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E89" s="12">
+      <c r="E89" s="8">
         <v>89.46</v>
       </c>
-      <c r="F89" s="12"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="12"/>
-      <c r="J89" s="12"/>
-      <c r="K89" s="12"/>
-      <c r="L89" s="12"/>
-      <c r="M89" s="16"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="8"/>
+      <c r="L89" s="8"/>
+      <c r="M89" s="15"/>
+    </row>
+    <row r="90" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A90" s="6">
+        <v>89</v>
+      </c>
+      <c r="B90" s="7">
+        <v>44636</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E90" s="8">
+        <v>14.4</v>
+      </c>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="8"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="8"/>
+      <c r="M90" s="15"/>
+    </row>
+    <row r="91" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A91" s="6">
+        <v>90</v>
+      </c>
+      <c r="B91" s="7">
+        <v>44636</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E91" s="8">
+        <v>9</v>
+      </c>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="8"/>
+      <c r="K91" s="8"/>
+      <c r="L91" s="8"/>
+      <c r="M91" s="15"/>
+    </row>
+    <row r="92" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A92" s="6">
+        <v>91</v>
+      </c>
+      <c r="B92" s="7">
+        <v>44636</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E92" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="8"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="8"/>
+      <c r="M92" s="15"/>
+    </row>
+    <row r="93" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A93" s="6">
+        <v>92</v>
+      </c>
+      <c r="B93" s="7">
+        <v>44637</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93" s="8">
+        <v>7</v>
+      </c>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
+      <c r="J93" s="8"/>
+      <c r="K93" s="8"/>
+      <c r="L93" s="8"/>
+      <c r="M93" s="15"/>
+    </row>
+    <row r="94" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A94" s="6">
+        <v>93</v>
+      </c>
+      <c r="B94" s="7">
+        <v>44637</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E94" s="8">
+        <v>13.8</v>
+      </c>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
+      <c r="J94" s="8"/>
+      <c r="K94" s="8"/>
+      <c r="L94" s="8"/>
+      <c r="M94" s="15"/>
+    </row>
+    <row r="95" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A95" s="6">
+        <v>94</v>
+      </c>
+      <c r="B95" s="7">
+        <v>44637</v>
+      </c>
+      <c r="C95" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E95" s="18">
+        <v>28.57</v>
+      </c>
+      <c r="F95" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G95" s="18"/>
+      <c r="H95" s="18"/>
+      <c r="I95" s="18"/>
+      <c r="J95" s="18"/>
+      <c r="K95" s="18"/>
+      <c r="L95" s="18"/>
+      <c r="M95" s="21"/>
+    </row>
+    <row r="96" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A96" s="6">
+        <v>95</v>
+      </c>
+      <c r="B96" s="7">
+        <v>44637</v>
+      </c>
+      <c r="C96" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E96" s="18">
+        <v>4</v>
+      </c>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="18"/>
+      <c r="I96" s="18"/>
+      <c r="J96" s="18"/>
+      <c r="K96" s="18"/>
+      <c r="L96" s="18"/>
+      <c r="M96" s="21"/>
+    </row>
+    <row r="97" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A97" s="6">
+        <v>96</v>
+      </c>
+      <c r="B97" s="7">
+        <v>44637</v>
+      </c>
+      <c r="C97" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E97" s="18">
+        <v>12</v>
+      </c>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="18"/>
+      <c r="I97" s="18"/>
+      <c r="J97" s="18"/>
+      <c r="K97" s="18"/>
+      <c r="L97" s="18"/>
+      <c r="M97" s="21"/>
+    </row>
+    <row r="98" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A98" s="10">
+        <v>97</v>
+      </c>
+      <c r="B98" s="11">
+        <v>44637</v>
+      </c>
+      <c r="C98" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E98" s="20">
+        <v>12.6</v>
+      </c>
+      <c r="F98" s="20"/>
+      <c r="G98" s="20"/>
+      <c r="H98" s="20"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="20"/>
+      <c r="K98" s="20"/>
+      <c r="L98" s="20"/>
+      <c r="M98" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4113,16 +4364,16 @@
         <v>44612</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E2" s="5">
         <v>55.1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>20</v>
@@ -4158,7 +4409,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -4188,7 +4439,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -4212,7 +4463,7 @@
         <v>53</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E5" s="8">
         <v>16.5</v>
@@ -4306,13 +4557,13 @@
         <v>13</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E9" s="8">
         <v>147.5</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -4331,7 +4582,7 @@
         <v>13</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E10" s="8">
         <v>15.9</v>
@@ -4377,7 +4628,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E12" s="8">
         <v>10</v>
@@ -4423,7 +4674,7 @@
         <v>26</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E14" s="8">
         <v>8</v>
@@ -4585,10 +4836,10 @@
         <v>44617</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E21" s="8">
         <v>12</v>
@@ -4610,10 +4861,10 @@
         <v>44617</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E22" s="8">
         <v>12</v>
@@ -4644,7 +4895,7 @@
         <v>50.32</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -4709,13 +4960,13 @@
         <v>26</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E26" s="8">
         <v>13</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
@@ -4734,7 +4985,7 @@
         <v>13</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E27" s="8">
         <v>27</v>
@@ -4780,7 +5031,7 @@
         <v>13</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E29" s="8">
         <v>11.4</v>
@@ -4869,16 +5120,16 @@
         <v>44620</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E33" s="8">
         <v>88</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
@@ -4963,16 +5214,16 @@
         <v>44620</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E37" s="12">
         <v>77.2</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
@@ -5055,20 +5306,20 @@
         <v>26</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E2" s="5">
         <v>10</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H2" s="5">
         <v>2000</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>18</v>
@@ -5086,16 +5337,16 @@
         <v>44613</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E3" s="8">
         <v>15</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -5147,7 +5398,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="E5" s="8">
         <v>47</v>
@@ -5169,7 +5420,7 @@
         <v>44613</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>31</v>
@@ -5345,7 +5596,7 @@
         <v>26</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E13" s="8">
         <v>106.4</v>
@@ -5370,7 +5621,7 @@
         <v>26</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E14" s="12">
         <v>29.9</v>
@@ -5456,10 +5707,10 @@
         <v>44578</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E2" s="5">
         <v>112.42</v>
@@ -5491,7 +5742,7 @@
         <v>44585</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>89</v>
@@ -5525,7 +5776,7 @@
         <v>44585</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>44</v>
@@ -5561,7 +5812,7 @@
         <v>44598</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>44</v>
@@ -5590,7 +5841,7 @@
         <v>44596</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>88</v>
@@ -5605,7 +5856,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K6" s="15">
         <f>SUM(E2,E4,E5,E6,E7,E8,E9,E12,E14)</f>
@@ -5625,7 +5876,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K7" s="15">
         <f>SUM(E3,E10,E11,E12)</f>
@@ -5675,10 +5926,10 @@
         <v>44604</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E10" s="8">
         <v>63</v>
@@ -5700,10 +5951,10 @@
         <v>44605</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E11" s="8">
         <v>56.72</v>
@@ -5725,10 +5976,10 @@
         <v>44607</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E12" s="8">
         <v>76</v>
@@ -5750,7 +6001,7 @@
         <v>44607</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>105</v>
@@ -5775,10 +6026,10 @@
         <v>44605</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E14" s="8">
         <v>118</v>
@@ -5826,10 +6077,10 @@
         <v>44610</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E16" s="8">
         <f>12+12+5+17+12+12-10-10-8-11</f>
@@ -5892,7 +6143,7 @@
         <v>44602</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>112</v>
@@ -5942,10 +6193,10 @@
         <v>44587</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E21" s="8">
         <v>29.9</v>
@@ -6020,7 +6271,7 @@
         <v>13</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E24" s="8">
         <f>3+4+4+3+10+6+6+3+9+7+2+8+5+3+5+18</f>
@@ -6238,7 +6489,7 @@
         <v>13</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E33" s="8">
         <v>27</v>

--- a/bills.xlsx
+++ b/bills.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="136">
   <si>
     <t>编号</t>
   </si>
@@ -197,6 +197,18 @@
     <t>聚餐</t>
   </si>
   <si>
+    <t>nb 550</t>
+  </si>
+  <si>
+    <t>学习</t>
+  </si>
+  <si>
+    <t>文具</t>
+  </si>
+  <si>
+    <t>美团优选</t>
+  </si>
+  <si>
     <t>购物</t>
   </si>
   <si>
@@ -246,9 +258,6 @@
   </si>
   <si>
     <t>黑色牛仔裤</t>
-  </si>
-  <si>
-    <t>学习</t>
   </si>
   <si>
     <t>书籍</t>
@@ -427,10 +436,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -461,6 +470,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -469,14 +493,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,7 +507,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,14 +529,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -528,11 +537,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -569,13 +577,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -592,6 +593,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -599,13 +608,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -626,7 +635,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,37 +647,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,73 +665,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,7 +683,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,43 +797,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,6 +1040,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1059,21 +1071,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1105,15 +1102,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1134,16 +1122,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1152,19 +1155,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1173,16 +1176,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1197,92 +1200,92 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1330,24 +1333,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1719,10 +1704,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M98"/>
+  <dimension ref="A1:M114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="J93" sqref="J93"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1815,14 +1800,14 @@
       </c>
       <c r="K2" s="5">
         <f>SUM(H2:H100)-SUM(E1:E100)</f>
-        <v>-1167.29</v>
+        <v>-1190.29</v>
       </c>
       <c r="L2" s="5">
         <v>1200</v>
       </c>
       <c r="M2" s="14">
         <f>SUM(L2)+K3</f>
-        <v>-1187.57</v>
+        <v>-1210.57</v>
       </c>
     </row>
     <row r="3" ht="18.5" customHeight="1" spans="1:13">
@@ -1858,7 +1843,7 @@
       </c>
       <c r="K3" s="8">
         <f>-SUM(E2:E100)</f>
-        <v>-2387.57</v>
+        <v>-2410.57</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="15"/>
@@ -4198,25 +4183,25 @@
       <c r="B95" s="7">
         <v>44637</v>
       </c>
-      <c r="C95" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D95" s="17" t="s">
+      <c r="C95" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E95" s="18">
+      <c r="E95" s="8">
         <v>28.57</v>
       </c>
-      <c r="F95" s="17" t="s">
+      <c r="F95" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G95" s="18"/>
-      <c r="H95" s="18"/>
-      <c r="I95" s="18"/>
-      <c r="J95" s="18"/>
-      <c r="K95" s="18"/>
-      <c r="L95" s="18"/>
-      <c r="M95" s="21"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="8"/>
+      <c r="J95" s="8"/>
+      <c r="K95" s="8"/>
+      <c r="L95" s="8"/>
+      <c r="M95" s="15"/>
     </row>
     <row r="96" ht="18.5" customHeight="1" spans="1:13">
       <c r="A96" s="6">
@@ -4225,23 +4210,23 @@
       <c r="B96" s="7">
         <v>44637</v>
       </c>
-      <c r="C96" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D96" s="17" t="s">
+      <c r="C96" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E96" s="18">
+      <c r="E96" s="8">
         <v>4</v>
       </c>
-      <c r="F96" s="18"/>
-      <c r="G96" s="18"/>
-      <c r="H96" s="18"/>
-      <c r="I96" s="18"/>
-      <c r="J96" s="18"/>
-      <c r="K96" s="18"/>
-      <c r="L96" s="18"/>
-      <c r="M96" s="21"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="8"/>
+      <c r="L96" s="8"/>
+      <c r="M96" s="15"/>
     </row>
     <row r="97" ht="18.5" customHeight="1" spans="1:13">
       <c r="A97" s="6">
@@ -4250,48 +4235,415 @@
       <c r="B97" s="7">
         <v>44637</v>
       </c>
-      <c r="C97" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D97" s="17" t="s">
+      <c r="C97" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E97" s="18">
+      <c r="E97" s="8">
         <v>12</v>
       </c>
-      <c r="F97" s="18"/>
-      <c r="G97" s="18"/>
-      <c r="H97" s="18"/>
-      <c r="I97" s="18"/>
-      <c r="J97" s="18"/>
-      <c r="K97" s="18"/>
-      <c r="L97" s="18"/>
-      <c r="M97" s="21"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="8"/>
+      <c r="K97" s="8"/>
+      <c r="L97" s="8"/>
+      <c r="M97" s="15"/>
     </row>
     <row r="98" ht="18.5" customHeight="1" spans="1:13">
-      <c r="A98" s="10">
+      <c r="A98" s="6">
         <v>97</v>
       </c>
-      <c r="B98" s="11">
+      <c r="B98" s="7">
         <v>44637</v>
       </c>
-      <c r="C98" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D98" s="19" t="s">
+      <c r="C98" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E98" s="20">
+      <c r="E98" s="8">
         <v>12.6</v>
       </c>
-      <c r="F98" s="20"/>
-      <c r="G98" s="20"/>
-      <c r="H98" s="20"/>
-      <c r="I98" s="20"/>
-      <c r="J98" s="20"/>
-      <c r="K98" s="20"/>
-      <c r="L98" s="20"/>
-      <c r="M98" s="22"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="8"/>
+      <c r="K98" s="8"/>
+      <c r="L98" s="8"/>
+      <c r="M98" s="15"/>
+    </row>
+    <row r="99" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A99" s="6">
+        <v>98</v>
+      </c>
+      <c r="B99" s="7">
+        <v>44638</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E99" s="8">
+        <v>16</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
+      <c r="K99" s="8"/>
+      <c r="L99" s="8"/>
+      <c r="M99" s="15"/>
+    </row>
+    <row r="100" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A100" s="6">
+        <v>99</v>
+      </c>
+      <c r="B100" s="7">
+        <v>44638</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E100" s="8">
+        <v>7</v>
+      </c>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="8"/>
+      <c r="J100" s="8"/>
+      <c r="K100" s="8"/>
+      <c r="L100" s="8"/>
+      <c r="M100" s="15"/>
+    </row>
+    <row r="101" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A101" s="6">
+        <v>100</v>
+      </c>
+      <c r="B101" s="7">
+        <v>44638</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E101" s="8">
+        <v>23</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G101" s="8"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8"/>
+      <c r="J101" s="8"/>
+      <c r="K101" s="8"/>
+      <c r="L101" s="8"/>
+      <c r="M101" s="15"/>
+    </row>
+    <row r="102" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A102" s="6">
+        <v>101</v>
+      </c>
+      <c r="B102" s="7">
+        <v>44638</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E102" s="8">
+        <v>16.5</v>
+      </c>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="8"/>
+      <c r="J102" s="8"/>
+      <c r="K102" s="8"/>
+      <c r="L102" s="8"/>
+      <c r="M102" s="15"/>
+    </row>
+    <row r="103" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A103" s="6">
+        <v>102</v>
+      </c>
+      <c r="B103" s="7">
+        <v>44639</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E103" s="8">
+        <v>12</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G103" s="8"/>
+      <c r="H103" s="8"/>
+      <c r="I103" s="8"/>
+      <c r="J103" s="8"/>
+      <c r="K103" s="8"/>
+      <c r="L103" s="8"/>
+      <c r="M103" s="15"/>
+    </row>
+    <row r="104" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A104" s="6">
+        <v>103</v>
+      </c>
+      <c r="B104" s="7">
+        <v>44639</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E104" s="8">
+        <v>3</v>
+      </c>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
+      <c r="J104" s="8"/>
+      <c r="K104" s="8"/>
+      <c r="L104" s="8"/>
+      <c r="M104" s="15"/>
+    </row>
+    <row r="105" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A105" s="6">
+        <v>104</v>
+      </c>
+      <c r="B105" s="7">
+        <v>44639</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E105" s="8">
+        <v>899</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G105" s="8"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
+      <c r="J105" s="8"/>
+      <c r="K105" s="8"/>
+      <c r="L105" s="8"/>
+      <c r="M105" s="15"/>
+    </row>
+    <row r="106" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A106" s="6">
+        <v>105</v>
+      </c>
+      <c r="B106" s="7">
+        <v>44639</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E106" s="8">
+        <v>6.9</v>
+      </c>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
+      <c r="J106" s="8"/>
+      <c r="K106" s="8"/>
+      <c r="L106" s="8"/>
+      <c r="M106" s="15"/>
+    </row>
+    <row r="107" ht="18.5" customHeight="1" spans="1:13">
+      <c r="A107" s="10">
+        <v>106</v>
+      </c>
+      <c r="B107" s="11">
+        <v>44639</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E107" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
+      <c r="J107" s="12"/>
+      <c r="K107" s="12"/>
+      <c r="L107" s="12"/>
+      <c r="M107" s="16"/>
+    </row>
+    <row r="108" ht="14.6" spans="1:5">
+      <c r="A108" s="10">
+        <v>107</v>
+      </c>
+      <c r="B108" s="11">
+        <v>44639</v>
+      </c>
+      <c r="C108" t="s">
+        <v>13</v>
+      </c>
+      <c r="D108" t="s">
+        <v>33</v>
+      </c>
+      <c r="E108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" ht="14.6" spans="1:6">
+      <c r="A109" s="10">
+        <v>108</v>
+      </c>
+      <c r="B109" s="11">
+        <v>44639</v>
+      </c>
+      <c r="C109" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109" t="s">
+        <v>33</v>
+      </c>
+      <c r="E109">
+        <v>34.53</v>
+      </c>
+      <c r="F109" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="110" ht="14.6" spans="1:6">
+      <c r="A110" s="10">
+        <v>109</v>
+      </c>
+      <c r="B110" s="11">
+        <v>44639</v>
+      </c>
+      <c r="C110" t="s">
+        <v>13</v>
+      </c>
+      <c r="D110" t="s">
+        <v>34</v>
+      </c>
+      <c r="E110">
+        <v>8.47</v>
+      </c>
+      <c r="F110" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="111" ht="14.6" spans="1:6">
+      <c r="A111" s="10">
+        <v>110</v>
+      </c>
+      <c r="B111" s="11">
+        <v>44639</v>
+      </c>
+      <c r="C111" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111" t="s">
+        <v>38</v>
+      </c>
+      <c r="E111">
+        <v>50.68</v>
+      </c>
+      <c r="F111" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="112" ht="14.6" spans="1:6">
+      <c r="A112" s="10">
+        <v>111</v>
+      </c>
+      <c r="B112" s="11">
+        <v>44640</v>
+      </c>
+      <c r="C112" t="s">
+        <v>13</v>
+      </c>
+      <c r="D112" t="s">
+        <v>33</v>
+      </c>
+      <c r="E112">
+        <v>28.85</v>
+      </c>
+      <c r="F112" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="113" ht="14.6" spans="1:6">
+      <c r="A113" s="10">
+        <v>112</v>
+      </c>
+      <c r="B113" s="11">
+        <v>44640</v>
+      </c>
+      <c r="C113" t="s">
+        <v>13</v>
+      </c>
+      <c r="D113" t="s">
+        <v>23</v>
+      </c>
+      <c r="E113">
+        <v>13</v>
+      </c>
+      <c r="F113" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" ht="14.6" spans="1:5">
+      <c r="A114" s="10">
+        <v>113</v>
+      </c>
+      <c r="B114" s="11">
+        <v>44640</v>
+      </c>
+      <c r="C114" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114" t="s">
+        <v>39</v>
+      </c>
+      <c r="E114">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4304,7 +4656,7 @@
   <sheetPr/>
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
@@ -4364,16 +4716,16 @@
         <v>44612</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E2" s="5">
         <v>55.1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>20</v>
@@ -4409,7 +4761,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -4439,7 +4791,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -4463,7 +4815,7 @@
         <v>53</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E5" s="8">
         <v>16.5</v>
@@ -4557,13 +4909,13 @@
         <v>13</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E9" s="8">
         <v>147.5</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -4582,7 +4934,7 @@
         <v>13</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E10" s="8">
         <v>15.9</v>
@@ -4628,7 +4980,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E12" s="8">
         <v>10</v>
@@ -4674,7 +5026,7 @@
         <v>26</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E14" s="8">
         <v>8</v>
@@ -4836,10 +5188,10 @@
         <v>44617</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E21" s="8">
         <v>12</v>
@@ -4861,10 +5213,10 @@
         <v>44617</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E22" s="8">
         <v>12</v>
@@ -4895,7 +5247,7 @@
         <v>50.32</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -4960,13 +5312,13 @@
         <v>26</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E26" s="8">
         <v>13</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
@@ -4985,7 +5337,7 @@
         <v>13</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E27" s="8">
         <v>27</v>
@@ -5031,7 +5383,7 @@
         <v>13</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E29" s="8">
         <v>11.4</v>
@@ -5120,16 +5472,16 @@
         <v>44620</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E33" s="8">
         <v>88</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
@@ -5214,16 +5566,16 @@
         <v>44620</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E37" s="12">
         <v>77.2</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
@@ -5306,20 +5658,20 @@
         <v>26</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E2" s="5">
         <v>10</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H2" s="5">
         <v>2000</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>18</v>
@@ -5337,16 +5689,16 @@
         <v>44613</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E3" s="8">
         <v>15</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
@@ -5404,7 +5756,7 @@
         <v>47</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -5420,7 +5772,7 @@
         <v>44613</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>31</v>
@@ -5429,7 +5781,7 @@
         <v>39</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -5448,13 +5800,13 @@
         <v>48</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E7" s="8">
         <v>8.8</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -5479,7 +5831,7 @@
         <v>54.8</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -5504,7 +5856,7 @@
         <v>28</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -5529,7 +5881,7 @@
         <v>22</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -5548,13 +5900,13 @@
         <v>48</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E11" s="8">
         <v>186</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -5596,13 +5948,13 @@
         <v>26</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E13" s="8">
         <v>106.4</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -5621,13 +5973,13 @@
         <v>26</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E14" s="12">
         <v>29.9</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
@@ -5707,19 +6059,19 @@
         <v>44578</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E2" s="5">
         <v>112.42</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H2" s="5">
         <f>400+1400</f>
@@ -5742,16 +6094,16 @@
         <v>44585</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E3" s="8">
         <v>679</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>20</v>
@@ -5776,7 +6128,7 @@
         <v>44585</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>44</v>
@@ -5785,7 +6137,7 @@
         <v>104.9</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>29</v>
@@ -5794,7 +6146,7 @@
         <v>50</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>25</v>
@@ -5812,7 +6164,7 @@
         <v>44598</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>44</v>
@@ -5821,7 +6173,7 @@
         <v>500</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>16</v>
@@ -5841,22 +6193,22 @@
         <v>44596</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E6" s="8">
         <v>335.54</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K6" s="15">
         <f>SUM(E2,E4,E5,E6,E7,E8,E9,E12,E14)</f>
@@ -5876,7 +6228,7 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K7" s="15">
         <f>SUM(E3,E10,E11,E12)</f>
@@ -5896,7 +6248,7 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K8" s="15">
         <f>SUM([1]Sheet1!E11,E20,E22,E28,E29,E26)</f>
@@ -5926,16 +6278,16 @@
         <v>44604</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E10" s="8">
         <v>63</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -5951,16 +6303,16 @@
         <v>44605</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E11" s="8">
         <v>56.72</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -5976,16 +6328,16 @@
         <v>44607</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E12" s="8">
         <v>76</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -6001,16 +6353,16 @@
         <v>44607</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E13" s="8">
         <v>119.31</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -6026,16 +6378,16 @@
         <v>44605</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E14" s="8">
         <v>118</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -6077,17 +6429,17 @@
         <v>44610</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E16" s="8">
         <f>12+12+5+17+12+12-10-10-8-11</f>
         <v>31</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
@@ -6118,16 +6470,16 @@
         <v>44600</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E18" s="8">
         <v>92</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
@@ -6143,16 +6495,16 @@
         <v>44602</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E19" s="8">
         <v>29</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
@@ -6171,13 +6523,13 @@
         <v>48</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E20" s="8">
         <v>36</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
@@ -6193,16 +6545,16 @@
         <v>44587</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E21" s="8">
         <v>29.9</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
@@ -6218,16 +6570,16 @@
         <v>44595</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E22" s="8">
         <v>118.5</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -6243,16 +6595,16 @@
         <v>44610</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E23" s="8">
         <v>1.78</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
@@ -6271,14 +6623,14 @@
         <v>13</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E24" s="8">
         <f>3+4+4+3+10+6+6+3+9+7+2+8+5+3+5+18</f>
         <v>96</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
@@ -6297,13 +6649,13 @@
         <v>26</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E25" s="8">
         <v>34</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
@@ -6326,7 +6678,7 @@
         <v>183</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
@@ -6374,7 +6726,7 @@
         <v>110</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -6397,7 +6749,7 @@
         <v>208</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
@@ -6416,13 +6768,13 @@
         <v>53</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E30" s="8">
         <v>40</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -6438,16 +6790,16 @@
         <v>44582</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E31" s="8">
         <v>9.9</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
@@ -6470,7 +6822,7 @@
         <v>20</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
@@ -6489,7 +6841,7 @@
         <v>13</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E33" s="8">
         <v>27</v>
@@ -6564,7 +6916,7 @@
         <v>10</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
@@ -6583,13 +6935,13 @@
         <v>26</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E37" s="8">
         <v>228</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
